--- a/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
+++ b/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="910">
   <si>
     <t>Resultados Temporada 2021-2022</t>
   </si>
@@ -349,7 +349,7 @@
     <t>Levante</t>
   </si>
   <si>
-    <t>1: PacoLopez, 8: Pereira!!</t>
+    <t>1: PacoLopez, 9: Pereira!!</t>
   </si>
   <si>
     <t>Real Sociedad B - Leganés</t>
@@ -361,7 +361,7 @@
     <t>Getafe</t>
   </si>
   <si>
-    <t>1: Michel, 15 Quique</t>
+    <t>1: Michel, 9: Quique</t>
   </si>
   <si>
     <t>Girona - Amorebieta</t>
@@ -466,7 +466,7 @@
     <t>Huesca</t>
   </si>
   <si>
-    <t>1: Ambriz, 15: Xisco</t>
+    <t>1: Ambriz, 13: Xisco</t>
   </si>
   <si>
     <t>Real Valladolid</t>
@@ -520,7 +520,7 @@
     <t>Leganés</t>
   </si>
   <si>
-    <t>1: Garitano, 16: Nafti</t>
+    <t>1: Garitano, 14: Nafti</t>
   </si>
   <si>
     <t>Espanyol - Villarreal</t>
@@ -649,7 +649,7 @@
     <t>Alcorcón</t>
   </si>
   <si>
-    <t>1: Anquela, 10: JorgeFernandez!!</t>
+    <t>1: Anquela¡, 7: JorgeFernandez!</t>
   </si>
   <si>
     <t>Lugo - Real Sociedad B</t>
@@ -1750,15 +1750,30 @@
     <t>Barcelona - Real Madrid</t>
   </si>
   <si>
+    <t>Claramente superior el Madrid sin ser nada arrollador, no hubo rival, el Barcelona marcó en el descuento</t>
+  </si>
+  <si>
     <t>Real Betis - Rayo Vallecano</t>
   </si>
   <si>
+    <t>Partido muy loco con dos equipos que juegean bastante bien, el Betis está en buena racha actualmente</t>
+  </si>
+  <si>
     <t>Atlético de Madrid - Real Sociedad</t>
   </si>
   <si>
+    <t>Bastante robo a la Real, le pitaron un penalti muy injusto</t>
+  </si>
+  <si>
     <t>Getafe - Celta</t>
   </si>
   <si>
+    <t>0 - 3</t>
+  </si>
+  <si>
+    <t>Repaso iincreíble del Celta al Getafe de Quique que no despega aún, veremos</t>
+  </si>
+  <si>
     <t>Jornada 10 - Liga Smartbank</t>
   </si>
   <si>
@@ -1846,27 +1861,51 @@
     <t>Villarreal - Cádiz</t>
   </si>
   <si>
+    <t>El Villarreal tuvo un 80% de posesión, atacó mucho más, pero el Cádiz es un equipo muy defensivo y que aprovecha sus ocasiones</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Barcelona</t>
+  </si>
+  <si>
+    <t>Muy mal partido del Barcelona contra un Rayo que sigue jugando increíble, le costó el puesto a Koeman</t>
+  </si>
+  <si>
     <t>Mallorca - Sevilla</t>
   </si>
   <si>
-    <t>Rayo Vallecano - Barcelona</t>
+    <t>El Sevilla marcó en el 98 pero se lo anularon, bien anulado. El Sevilla no es candidato al título, falla bastante contra equipos a los que debería ganar</t>
   </si>
   <si>
     <t>Real Betis - Valencia</t>
   </si>
   <si>
+    <t>Resultado muy sorprendente, el Betis ha mejorado mucho. Raro en un equipo de Bordalás recibir semejante goleada ante un rivel en teoría algo inferior</t>
+  </si>
+  <si>
     <t>Real Madrid - Osasuna</t>
   </si>
   <si>
+    <t>No fue un buen partido del Madrid entre semana, bien Osasuna</t>
+  </si>
+  <si>
     <t>Celta - Real Sociedad</t>
   </si>
   <si>
+    <t>La Real esta teniendo bastante suerte esta temporada, hubiese sido justo un empate</t>
+  </si>
+  <si>
     <t>Granada - Getafe</t>
   </si>
   <si>
+    <t>Un punto decente para el Getafe, aunque el Granada es un rival directo por la permanencia</t>
+  </si>
+  <si>
     <t>Levante - Atlético de Madrid</t>
   </si>
   <si>
+    <t>Un robo muy grande al Atleti que mereció más</t>
+  </si>
+  <si>
     <t>Jornada 11 - Liga Smartbank</t>
   </si>
   <si>
@@ -1894,15 +1933,24 @@
     <t>Alcorcón - Leganés</t>
   </si>
   <si>
+    <t>Dos equipos que llevan una temporada muy mala, su nivel actualmente el similar</t>
+  </si>
+  <si>
     <t>Lugo - Las Palmas</t>
   </si>
   <si>
     <t>Almería - Real Sociedad B</t>
   </si>
   <si>
+    <t>Bien el Almería que sigue ganando, el Sanse no tuvo nada que hacer</t>
+  </si>
+  <si>
     <t>Real Zaragoza - Ponferradina</t>
   </si>
   <si>
+    <t>Otro empate del Zaragoza. La Ponfe ha bajado el nivel mucho</t>
+  </si>
+  <si>
     <t>Mirandés - Girona</t>
   </si>
   <si>
@@ -1921,15 +1969,21 @@
     <t>Sevilla - Osasuna</t>
   </si>
   <si>
-    <t>Muy superior el Sevilla.</t>
+    <t>Muy superior el Sevilla</t>
   </si>
   <si>
     <t>Valencia - Villarreal</t>
   </si>
   <si>
+    <t>Fue mucho mejor el Valencia en el derbi</t>
+  </si>
+  <si>
     <t>Barcelona - Deportivo Alavés</t>
   </si>
   <si>
+    <t>Muy buen empate para el Alavés que sigue en descenso. Sergi tenía poco que hacer, además se tuvo que retirar el Kun</t>
+  </si>
+  <si>
     <t>Cádiz - Mallorca</t>
   </si>
   <si>
@@ -1990,6 +2044,9 @@
     <t>Burgos - Huesca</t>
   </si>
   <si>
+    <t>Muy mal el Huesca en un partido que empezó ganando, el campo del Burgos es increíble, lleno siempre. Este partido le costó el puesto a Ambriz</t>
+  </si>
+  <si>
     <t>Ponferradina - Real Oviedo</t>
   </si>
   <si>
@@ -1999,6 +2056,9 @@
     <t>Girona - Real Zaragoza</t>
   </si>
   <si>
+    <t>El Zaragoza empata siempre, necesita ganar. El Girona sigue en desenso</t>
+  </si>
+  <si>
     <t>Jornada 13 - Liga Santander</t>
   </si>
   <si>
@@ -2056,7 +2116,13 @@
     <t>Lugo - Real Sporting</t>
   </si>
   <si>
+    <t>Partido igualado, el Sporting consiguió empatar</t>
+  </si>
+  <si>
     <t>Cartagena - Ponferradina</t>
+  </si>
+  <si>
+    <t>El Cartagena vuelve al nivel normal y la Ponfe gana fuera</t>
   </si>
   <si>
     <t>Fuenlabrada - Girona</t>
@@ -10870,248 +10936,317 @@
       <c r="A234" t="s">
         <v>577</v>
       </c>
+      <c r="B234" t="s">
+        <v>76</v>
+      </c>
+      <c r="C234" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>578</v>
+        <v>579</v>
+      </c>
+      <c r="B235" t="s">
+        <v>368</v>
+      </c>
+      <c r="C235" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>579</v>
+        <v>581</v>
+      </c>
+      <c r="B236" t="s">
+        <v>129</v>
+      </c>
+      <c r="C236" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>580</v>
+        <v>583</v>
+      </c>
+      <c r="B237" t="s">
+        <v>584</v>
+      </c>
+      <c r="C237" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B240" t="s">
         <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B241" t="s">
         <v>267</v>
       </c>
       <c r="C241" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B242" t="s">
         <v>76</v>
       </c>
       <c r="C242" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B243" t="s">
         <v>208</v>
       </c>
       <c r="C243" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B244" t="s">
         <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B245" t="s">
         <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B246" t="s">
         <v>221</v>
       </c>
       <c r="C246" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B247" t="s">
         <v>221</v>
       </c>
       <c r="C247" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B248" t="s">
         <v>57</v>
       </c>
       <c r="C248" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B249" t="s">
         <v>57</v>
       </c>
       <c r="C249" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B250" t="s">
         <v>71</v>
       </c>
       <c r="C250" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B253" t="s">
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B254" t="s">
         <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B255" t="s">
         <v>186</v>
       </c>
+      <c r="C255" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>610</v>
+        <v>616</v>
+      </c>
+      <c r="B256" t="s">
+        <v>44</v>
+      </c>
+      <c r="C256" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>611</v>
+        <v>618</v>
+      </c>
+      <c r="B257" t="s">
+        <v>57</v>
+      </c>
+      <c r="C257" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>612</v>
+        <v>620</v>
+      </c>
+      <c r="B258" t="s">
+        <v>400</v>
+      </c>
+      <c r="C258" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>613</v>
+        <v>622</v>
+      </c>
+      <c r="B259" t="s">
+        <v>57</v>
+      </c>
+      <c r="C259" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>614</v>
+        <v>624</v>
+      </c>
+      <c r="B260" t="s">
+        <v>221</v>
+      </c>
+      <c r="C260" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>615</v>
+        <v>626</v>
+      </c>
+      <c r="B261" t="s">
+        <v>57</v>
+      </c>
+      <c r="C261" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>616</v>
+        <v>628</v>
+      </c>
+      <c r="B262" t="s">
+        <v>129</v>
+      </c>
+      <c r="C262" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="B265" t="s">
         <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="B266" t="s">
         <v>71</v>
       </c>
       <c r="C266" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B267" t="s">
         <v>161</v>
@@ -11119,7 +11254,7 @@
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="B268" t="s">
         <v>71</v>
@@ -11127,7 +11262,7 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="B269" t="s">
         <v>57</v>
@@ -11135,15 +11270,18 @@
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B270" t="s">
         <v>186</v>
       </c>
+      <c r="C270" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
       <c r="B271" t="s">
         <v>104</v>
@@ -11151,23 +11289,29 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="B272" t="s">
         <v>394</v>
       </c>
+      <c r="C272" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="B273" t="s">
         <v>57</v>
       </c>
+      <c r="C273" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B274" t="s">
         <v>76</v>
@@ -11175,7 +11319,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B275" t="s">
         <v>147</v>
@@ -11183,112 +11327,124 @@
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="B278" t="s">
         <v>57</v>
       </c>
       <c r="C278" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="B279" t="s">
         <v>104</v>
       </c>
       <c r="C279" t="s">
-        <v>635</v>
+        <v>651</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>636</v>
+        <v>652</v>
+      </c>
+      <c r="B280" t="s">
+        <v>104</v>
+      </c>
+      <c r="C280" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>637</v>
+        <v>654</v>
+      </c>
+      <c r="B281" t="s">
+        <v>57</v>
+      </c>
+      <c r="C281" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="B290" t="s">
         <v>208</v>
       </c>
       <c r="C290" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="B291" t="s">
         <v>394</v>
       </c>
       <c r="C291" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="B292" t="s">
         <v>76</v>
       </c>
       <c r="C292" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="B293" t="s">
         <v>44</v>
@@ -11296,7 +11452,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="B294" t="s">
         <v>76</v>
@@ -11304,1182 +11460,1212 @@
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="B295" t="s">
         <v>76</v>
       </c>
       <c r="C295" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="B296" t="s">
         <v>66</v>
       </c>
       <c r="C296" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>657</v>
+        <v>675</v>
+      </c>
+      <c r="B297" t="s">
+        <v>394</v>
+      </c>
+      <c r="C297" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>658</v>
+        <v>677</v>
+      </c>
+      <c r="B298" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>659</v>
+        <v>678</v>
+      </c>
+      <c r="B299" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>660</v>
+        <v>679</v>
+      </c>
+      <c r="B300" t="s">
+        <v>57</v>
+      </c>
+      <c r="C300" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="B315" t="s">
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="B316" t="s">
         <v>161</v>
       </c>
       <c r="C316" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="B317" t="s">
         <v>57</v>
       </c>
       <c r="C317" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>679</v>
+        <v>699</v>
+      </c>
+      <c r="B318" t="s">
+        <v>57</v>
+      </c>
+      <c r="C318" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>680</v>
+        <v>701</v>
+      </c>
+      <c r="B319" t="s">
+        <v>161</v>
+      </c>
+      <c r="C319" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>770</v>
+        <v>792</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>771</v>
+        <v>793</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>772</v>
+        <v>794</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>773</v>
+        <v>795</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>774</v>
+        <v>796</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>775</v>
+        <v>797</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>776</v>
+        <v>798</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>781</v>
+        <v>803</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>782</v>
+        <v>804</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>784</v>
+        <v>806</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>785</v>
+        <v>807</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>786</v>
+        <v>808</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>787</v>
+        <v>809</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>788</v>
+        <v>810</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>789</v>
+        <v>811</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>790</v>
+        <v>812</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>793</v>
+        <v>815</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>794</v>
+        <v>816</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>795</v>
+        <v>817</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>796</v>
+        <v>818</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>797</v>
+        <v>819</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>799</v>
+        <v>821</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>801</v>
+        <v>823</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>802</v>
+        <v>824</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>803</v>
+        <v>825</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>804</v>
+        <v>826</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>805</v>
+        <v>827</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>809</v>
+        <v>831</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>811</v>
+        <v>833</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>812</v>
+        <v>834</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>813</v>
+        <v>835</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>814</v>
+        <v>836</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>815</v>
+        <v>837</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>818</v>
+        <v>840</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>819</v>
+        <v>841</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>822</v>
+        <v>844</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>825</v>
+        <v>847</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>826</v>
+        <v>848</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>828</v>
+        <v>850</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>831</v>
+        <v>853</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>835</v>
+        <v>857</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>836</v>
+        <v>858</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>837</v>
+        <v>859</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>838</v>
+        <v>860</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>839</v>
+        <v>861</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>840</v>
+        <v>862</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>841</v>
+        <v>863</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>842</v>
+        <v>864</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>843</v>
+        <v>865</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>844</v>
+        <v>866</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>845</v>
+        <v>867</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>846</v>
+        <v>868</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>847</v>
+        <v>869</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>848</v>
+        <v>870</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>849</v>
+        <v>871</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>850</v>
+        <v>872</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>851</v>
+        <v>873</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>852</v>
+        <v>874</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>853</v>
+        <v>875</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>855</v>
+        <v>877</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>856</v>
+        <v>878</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>857</v>
+        <v>879</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>858</v>
+        <v>880</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>859</v>
+        <v>881</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>860</v>
+        <v>882</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>861</v>
+        <v>883</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>862</v>
+        <v>884</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>863</v>
+        <v>885</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>864</v>
+        <v>886</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>865</v>
+        <v>887</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>866</v>
+        <v>888</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>868</v>
+        <v>890</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>869</v>
+        <v>891</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>870</v>
+        <v>892</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>871</v>
+        <v>893</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>872</v>
+        <v>894</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>873</v>
+        <v>895</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>874</v>
+        <v>896</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>875</v>
+        <v>897</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>876</v>
+        <v>898</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>877</v>
+        <v>899</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>878</v>
+        <v>900</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>879</v>
+        <v>901</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>880</v>
+        <v>902</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>881</v>
+        <v>903</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>882</v>
+        <v>904</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>883</v>
+        <v>905</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>884</v>
+        <v>906</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>885</v>
+        <v>907</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>886</v>
+        <v>908</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>887</v>
+        <v>909</v>
       </c>
     </row>
   </sheetData>

--- a/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
+++ b/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="919">
   <si>
     <t>Resultados Temporada 2021-2022</t>
   </si>
@@ -1579,55 +1579,55 @@
     <t>Jornada 9 - Liga Santander</t>
   </si>
   <si>
-    <t>Levante vs Getafe</t>
+    <t>Levante - Getafe</t>
   </si>
   <si>
     <t>Muy poco, el Getafe algo mejor. Dos equipos con entrenador nuevo</t>
   </si>
   <si>
-    <t>Real Sociedad vs Mallorca</t>
+    <t>Real Sociedad - Mallorca</t>
   </si>
   <si>
     <t>Roja en el 45 de la primera parte a la Real. Gol de la Real en el 90, mucho mérito con 10</t>
   </si>
   <si>
-    <t>Granada vs Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>Real Madrid vs Athletic Club</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano vs Elche</t>
+    <t>Granada - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid - Athletic Club</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Elche</t>
   </si>
   <si>
     <t>El Rayo fue claramente mejor pero en el final el Elche tuvo ocasiones. El Rayo ha ganado siempre en casa</t>
   </si>
   <si>
-    <t>Celta vs Sevilla</t>
+    <t>Celta - Sevilla</t>
   </si>
   <si>
     <t>Le faltó efectividad al Celta. Bien Sevilla</t>
   </si>
   <si>
-    <t>Villarreal vs Osasuna</t>
+    <t>Villarreal - Osasuna</t>
   </si>
   <si>
     <t>Osasuna gana tras la charla de Unzué</t>
   </si>
   <si>
-    <t>Barcelona vs Valencia</t>
+    <t>Barcelona - Valencia</t>
   </si>
   <si>
     <t>Le robaron al Valencia un poco, mereció más. Barcelona veremos si sigue con esta buena tendencia</t>
   </si>
   <si>
-    <t>Deportivo Alavés vs Real Betis</t>
+    <t>Deportivo Alavés - Real Betis</t>
   </si>
   <si>
     <t>Gol de Borja Iglesias en el 89. El Alavés sigue sin suerte</t>
   </si>
   <si>
-    <t>Espanyol vs Cádiz</t>
+    <t>Espanyol - Cádiz</t>
   </si>
   <si>
     <t>Fue claramente mejor el Espanyol que lleva una buena racha</t>
@@ -1924,12 +1924,18 @@
     <t>Tenerife - Eibar</t>
   </si>
   <si>
+    <t>Eibar ya gana fuera, muy bien</t>
+  </si>
+  <si>
     <t>Fuenlabrada - Amorebieta</t>
   </si>
   <si>
     <t>Real Valladolid - Ibiza</t>
   </si>
   <si>
+    <t>El Ibiza de contra consigue empatar. El Valladolid tuvo muchas más ocasiones pero no consiguió acertar</t>
+  </si>
+  <si>
     <t>Alcorcón - Leganés</t>
   </si>
   <si>
@@ -1939,6 +1945,9 @@
     <t>Lugo - Las Palmas</t>
   </si>
   <si>
+    <t>El Lugo tuvo fortuna porque el primer gol fue en propia, después Las Palmas tuvo dos lesiones y no pudo hacer nada. Resultado justo, bien Lugo</t>
+  </si>
+  <si>
     <t>Almería - Real Sociedad B</t>
   </si>
   <si>
@@ -1954,9 +1963,15 @@
     <t>Mirandés - Girona</t>
   </si>
   <si>
+    <t>El Girona por fin gana fuera contra un Mirandés que es bastante irregular</t>
+  </si>
+  <si>
     <t>Real Oviedo - Burgos</t>
   </si>
   <si>
+    <t>Primera victoria del Burgos, ya no solo en casa es un equipo muy complicado sino fuera. De los peores partidos del Oviedo</t>
+  </si>
+  <si>
     <t>Jornada 12 - Liga Santander</t>
   </si>
   <si>
@@ -2014,7 +2029,7 @@
     <t>Ibiza - Fuenlabrada</t>
   </si>
   <si>
-    <t>Golazo del Ibiza en el 7. Empata el Fuenlabrada y se vuelve a adelantar el Ibiza. Fall un penalti Pedro León</t>
+    <t>Golazo del Ibiza en el 7. Empata el Fuenlabrada y se vuelve a adelantar el Ibiza. Falló un penalti Pedro León</t>
   </si>
   <si>
     <t>Real Sporting - Real Valladolid</t>
@@ -2026,9 +2041,15 @@
     <t>Málaga - Lugo</t>
   </si>
   <si>
+    <t>Jugó un buen partido el Málaga en casa, aunque suele sufrir bastante. El Lugo acusó el cansancio previo</t>
+  </si>
+  <si>
     <t>Leganés - Tenerife</t>
   </si>
   <si>
+    <t>Otra derrota del Leganés que no mejora, peligra y mucho Garitano. Bien Tenerife que fuera de casa siempre sorprende</t>
+  </si>
+  <si>
     <t>Amorebieta - Real Sociedad B</t>
   </si>
   <si>
@@ -2050,9 +2071,15 @@
     <t>Ponferradina - Real Oviedo</t>
   </si>
   <si>
+    <t>La Ponfe sigue sin recuperar el nivel de principio de temporada contra un buen Oviedo que aprovechó errores defensivos</t>
+  </si>
+  <si>
     <t>Las Palmas - Alcorcón</t>
   </si>
   <si>
+    <t>Roja en el minuto 8 al Alcorcón. Lo pagó y muy caro. El cambio de entrenador del Alcorcón no está surtiendo efectos</t>
+  </si>
+  <si>
     <t>Girona - Real Zaragoza</t>
   </si>
   <si>
@@ -2098,7 +2125,7 @@
     <t>Almería - Leganés</t>
   </si>
   <si>
-    <t>Tiró mucho más el Leganés pero sigue sin suerte aunque el Leganés no es rival para el Almería</t>
+    <t>Tiró mucho más el Leganés pero sigue sin suerte aunque el Leganés no es rival para el Almería. Le costó el puesto a Garitano</t>
   </si>
   <si>
     <t>Real Sociedad B - Las Palmas</t>
@@ -3258,10 +3285,10 @@
         <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R3" t="s">
         <v>55</v>
@@ -3389,13 +3416,13 @@
         <v>54</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S4" t="s">
         <v>55</v>
@@ -3517,16 +3544,16 @@
         <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
         <v>55</v>
@@ -3648,16 +3675,16 @@
         <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
         <v>55</v>
@@ -3779,13 +3806,13 @@
         <v>51</v>
       </c>
       <c r="O7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R7" t="s">
         <v>55</v>
@@ -3910,13 +3937,13 @@
         <v>52</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R8" t="s">
         <v>55</v>
@@ -4041,16 +4068,16 @@
         <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s">
         <v>55</v>
@@ -4172,13 +4199,13 @@
         <v>52</v>
       </c>
       <c r="O10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R10" t="s">
         <v>55</v>
@@ -4306,10 +4333,10 @@
         <v>54</v>
       </c>
       <c r="P11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R11" t="s">
         <v>55</v>
@@ -4437,10 +4464,10 @@
         <v>54</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
         <v>55</v>
@@ -4556,16 +4583,16 @@
         <v>50</v>
       </c>
       <c r="O13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S13" t="s">
         <v>55</v>
@@ -4681,13 +4708,13 @@
         <v>51</v>
       </c>
       <c r="O14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R14" t="s">
         <v>55</v>
@@ -4812,16 +4839,16 @@
         <v>51</v>
       </c>
       <c r="O15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
         <v>55</v>
@@ -4943,13 +4970,13 @@
         <v>52</v>
       </c>
       <c r="O16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R16" t="s">
         <v>55</v>
@@ -5074,13 +5101,13 @@
         <v>51</v>
       </c>
       <c r="O17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R17" t="s">
         <v>55</v>
@@ -5205,16 +5232,16 @@
         <v>52</v>
       </c>
       <c r="O18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S18" t="s">
         <v>55</v>
@@ -5336,16 +5363,16 @@
         <v>53</v>
       </c>
       <c r="O19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R19" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S19" t="s">
         <v>55</v>
@@ -5467,13 +5494,13 @@
         <v>53</v>
       </c>
       <c r="O20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R20" t="s">
         <v>55</v>
@@ -5598,13 +5625,13 @@
         <v>48</v>
       </c>
       <c r="O21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R21" t="s">
         <v>55</v>
@@ -5729,13 +5756,13 @@
         <v>49</v>
       </c>
       <c r="O22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R22" t="s">
         <v>55</v>
@@ -6017,16 +6044,16 @@
         <v>51</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T25" t="s">
         <v>55</v>
@@ -6151,13 +6178,13 @@
         <v>51</v>
       </c>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q26" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S26" t="s">
         <v>55</v>
@@ -6288,13 +6315,13 @@
         <v>49</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S27" t="s">
         <v>55</v>
@@ -6431,13 +6458,13 @@
         <v>52</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S28" t="s">
         <v>55</v>
@@ -6574,16 +6601,16 @@
         <v>51</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T29" t="s">
         <v>55</v>
@@ -6717,16 +6744,16 @@
         <v>52</v>
       </c>
       <c r="P30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T30" t="s">
         <v>55</v>
@@ -6860,16 +6887,16 @@
         <v>51</v>
       </c>
       <c r="P31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T31" t="s">
         <v>55</v>
@@ -7003,16 +7030,16 @@
         <v>51</v>
       </c>
       <c r="P32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T32" t="s">
         <v>55</v>
@@ -7146,16 +7173,16 @@
         <v>51</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="Q33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T33" t="s">
         <v>55</v>
@@ -7289,13 +7316,13 @@
         <v>50</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S34" t="s">
         <v>55</v>
@@ -7432,13 +7459,13 @@
         <v>53</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S35" t="s">
         <v>55</v>
@@ -7575,13 +7602,13 @@
         <v>51</v>
       </c>
       <c r="P36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="R36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S36" t="s">
         <v>55</v>
@@ -7718,13 +7745,13 @@
         <v>51</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q37" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S37" t="s">
         <v>55</v>
@@ -7852,13 +7879,13 @@
         <v>48</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S38" t="s">
         <v>55</v>
@@ -7989,13 +8016,13 @@
         <v>51</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S39" t="s">
         <v>55</v>
@@ -8132,16 +8159,16 @@
         <v>53</v>
       </c>
       <c r="P40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T40" t="s">
         <v>55</v>
@@ -8275,13 +8302,13 @@
         <v>53</v>
       </c>
       <c r="P41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S41" t="s">
         <v>55</v>
@@ -8418,16 +8445,16 @@
         <v>53</v>
       </c>
       <c r="P42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="R42" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T42" t="s">
         <v>55</v>
@@ -8561,13 +8588,13 @@
         <v>52</v>
       </c>
       <c r="P43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S43" t="s">
         <v>55</v>
@@ -8704,13 +8731,13 @@
         <v>49</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S44" t="s">
         <v>55</v>
@@ -8847,16 +8874,16 @@
         <v>52</v>
       </c>
       <c r="P45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="R45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T45" t="s">
         <v>55</v>
@@ -8990,16 +9017,16 @@
         <v>51</v>
       </c>
       <c r="P46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R46" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T46" t="s">
         <v>55</v>
@@ -11251,1421 +11278,1451 @@
       <c r="B267" t="s">
         <v>161</v>
       </c>
+      <c r="C267" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B268" t="s">
         <v>71</v>
       </c>
+      <c r="C268" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B269" t="s">
         <v>57</v>
       </c>
+      <c r="C269" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B270" t="s">
         <v>186</v>
       </c>
       <c r="C270" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B271" t="s">
         <v>104</v>
       </c>
+      <c r="C271" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B272" t="s">
         <v>394</v>
       </c>
       <c r="C272" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B273" t="s">
         <v>57</v>
       </c>
       <c r="C273" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B274" t="s">
         <v>76</v>
       </c>
+      <c r="C274" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B275" t="s">
         <v>147</v>
       </c>
+      <c r="C275" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="B278" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C278" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B279" t="s">
         <v>104</v>
       </c>
       <c r="C279" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B280" t="s">
         <v>104</v>
       </c>
       <c r="C280" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="B281" t="s">
         <v>57</v>
       </c>
       <c r="C281" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B290" t="s">
         <v>208</v>
       </c>
       <c r="C290" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B291" t="s">
         <v>394</v>
       </c>
       <c r="C291" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B292" t="s">
         <v>76</v>
       </c>
       <c r="C292" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B293" t="s">
         <v>44</v>
       </c>
+      <c r="C293" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B294" t="s">
         <v>76</v>
       </c>
+      <c r="C294" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="B295" t="s">
         <v>76</v>
       </c>
       <c r="C295" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="B296" t="s">
         <v>66</v>
       </c>
       <c r="C296" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="B297" t="s">
         <v>394</v>
       </c>
       <c r="C297" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B298" t="s">
         <v>76</v>
       </c>
+      <c r="C298" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B299" t="s">
         <v>86</v>
       </c>
+      <c r="C299" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B300" t="s">
         <v>57</v>
       </c>
       <c r="C300" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="B315" t="s">
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B316" t="s">
         <v>161</v>
       </c>
       <c r="C316" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B317" t="s">
         <v>57</v>
       </c>
       <c r="C317" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="B318" t="s">
         <v>57</v>
       </c>
       <c r="C318" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B319" t="s">
         <v>161</v>
       </c>
       <c r="C319" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
     </row>
     <row r="321" spans="1:1">
       <c r="A321" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="322" spans="1:1">
       <c r="A322" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="323" spans="1:1">
       <c r="A323" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
     </row>
     <row r="324" spans="1:1">
       <c r="A324" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
     </row>
     <row r="327" spans="1:1">
       <c r="A327" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="328" spans="1:1">
       <c r="A328" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
     </row>
     <row r="329" spans="1:1">
       <c r="A329" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
     </row>
     <row r="330" spans="1:1">
       <c r="A330" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="331" spans="1:1">
       <c r="A331" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
     </row>
     <row r="332" spans="1:1">
       <c r="A332" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
     </row>
     <row r="333" spans="1:1">
       <c r="A333" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="334" spans="1:1">
       <c r="A334" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
     </row>
     <row r="335" spans="1:1">
       <c r="A335" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
     </row>
     <row r="336" spans="1:1">
       <c r="A336" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="337" spans="1:1">
       <c r="A337" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
     </row>
     <row r="339" spans="1:1">
       <c r="A339" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="340" spans="1:1">
       <c r="A340" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
     </row>
     <row r="341" spans="1:1">
       <c r="A341" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="342" spans="1:1">
       <c r="A342" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
     </row>
     <row r="343" spans="1:1">
       <c r="A343" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="344" spans="1:1">
       <c r="A344" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
     </row>
     <row r="345" spans="1:1">
       <c r="A345" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="346" spans="1:1">
       <c r="A346" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
     </row>
     <row r="347" spans="1:1">
       <c r="A347" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="348" spans="1:1">
       <c r="A348" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="349" spans="1:1">
       <c r="A349" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="350" spans="1:1">
       <c r="A350" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
     </row>
     <row r="352" spans="1:1">
       <c r="A352" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="353" spans="1:1">
       <c r="A353" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
     </row>
     <row r="354" spans="1:1">
       <c r="A354" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="355" spans="1:1">
       <c r="A355" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
     </row>
     <row r="356" spans="1:1">
       <c r="A356" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="357" spans="1:1">
       <c r="A357" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
     </row>
     <row r="358" spans="1:1">
       <c r="A358" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="359" spans="1:1">
       <c r="A359" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
     </row>
     <row r="360" spans="1:1">
       <c r="A360" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="361" spans="1:1">
       <c r="A361" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
     </row>
     <row r="362" spans="1:1">
       <c r="A362" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row r="364" spans="1:1">
       <c r="A364" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
     </row>
     <row r="365" spans="1:1">
       <c r="A365" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="366" spans="1:1">
       <c r="A366" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
     </row>
     <row r="367" spans="1:1">
       <c r="A367" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="368" spans="1:1">
       <c r="A368" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
     </row>
     <row r="369" spans="1:1">
       <c r="A369" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="370" spans="1:1">
       <c r="A370" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
     </row>
     <row r="371" spans="1:1">
       <c r="A371" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="372" spans="1:1">
       <c r="A372" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
     </row>
     <row r="373" spans="1:1">
       <c r="A373" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="374" spans="1:1">
       <c r="A374" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="377" spans="1:1">
       <c r="A377" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
     </row>
     <row r="378" spans="1:1">
       <c r="A378" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
     </row>
     <row r="379" spans="1:1">
       <c r="A379" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
     </row>
     <row r="380" spans="1:1">
       <c r="A380" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="381" spans="1:1">
       <c r="A381" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
     </row>
     <row r="382" spans="1:1">
       <c r="A382" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="383" spans="1:1">
       <c r="A383" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
     </row>
     <row r="384" spans="1:1">
       <c r="A384" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
+++ b/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="958">
   <si>
     <t>Resultados Temporada 2021-2022</t>
   </si>
@@ -586,6 +586,9 @@
     <t>1: Oltra!</t>
   </si>
   <si>
+    <t>0,,5</t>
+  </si>
+  <si>
     <t>Getafe - Sevilla</t>
   </si>
   <si>
@@ -1852,7 +1855,7 @@
     <t>Por fin gana el Alavés, muy importante victoria. Al Elche le robaron un poco, parece</t>
   </si>
   <si>
-    <t>Espanyol - Atheltic Club</t>
+    <t>Espanyol - Athletic Club</t>
   </si>
   <si>
     <t>Tuvo muchas ocasiones el Athletic. Marcó RDT y le expulsaron, próximo partido no juega</t>
@@ -2002,21 +2005,39 @@
     <t>Cádiz - Mallorca</t>
   </si>
   <si>
+    <t>Partido muy bronco. El Cádiz consiguió empatar de penalti, si hubiese perdido ojo Cervera. Mallorca bastante bien</t>
+  </si>
+  <si>
     <t>Atlético de Madrid - Real Betis</t>
   </si>
   <si>
+    <t>Muy mal el Betis, solo tiró una vez a puerta, no tuvo nada que hacer contra un buen Atleti</t>
+  </si>
+  <si>
     <t>Getafe - Espanyol</t>
   </si>
   <si>
-    <t>Real Sociedad - Athetic Club</t>
+    <t>El Getafe al fin gana a un Espanyol bastante débil. Cuando un equipo necesitado juega contra el Espanyol suele ganar</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Athletic Club</t>
+  </si>
+  <si>
+    <t>Empató el Athletic en el 91. Es discutible si mereció ganar la Real</t>
   </si>
   <si>
     <t>Rayo Vallecano - Celta</t>
   </si>
   <si>
+    <t>Poca cosa. Muy empatados en tiros y posesión</t>
+  </si>
+  <si>
     <t>Levante - Granada</t>
   </si>
   <si>
+    <t>El Granada al fin empieza a despegar, cuarto partido sin perder. Muy mal partido del Levante con el planteamiento de Pereira. El Levante no gana desde hace 20 partidos, increíble</t>
+  </si>
+  <si>
     <t>Jornada 12 - Liga Smartbank</t>
   </si>
   <si>
@@ -2089,34 +2110,61 @@
     <t>Jornada 13 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Cádiz</t>
+  </si>
+  <si>
+    <t>Espanyol - Granada</t>
+  </si>
+  <si>
+    <t>2 Granada viene en tendencia ascendente o empate</t>
+  </si>
+  <si>
+    <t>Celta - Barcelona</t>
+  </si>
+  <si>
+    <t>X Ambos están en un mínimo, quizá un 2 también</t>
+  </si>
+  <si>
     <t>Deportivo Alavés - Levante</t>
   </si>
   <si>
-    <t>Athletic Club - Cádiz</t>
+    <t>1 El Levante no gana desde hace 20 partidos y está en un mínimo absoluto</t>
+  </si>
+  <si>
+    <t>Real Madrid - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>1 Ambos están en un máximo, mucho cuidado con el Rayo</t>
+  </si>
+  <si>
+    <t>Villarreal - Getafe</t>
+  </si>
+  <si>
+    <t>1 Villarreal está en un mínimo absoluto, Getafe dos victorias seguidas sería muy complicado</t>
+  </si>
+  <si>
+    <t>Valencia - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>X Ambos vienen de golear, factor campo</t>
+  </si>
+  <si>
+    <t>Mallorca - Elche</t>
+  </si>
+  <si>
+    <t>X Elche en un mínimo absoluto, Mallorca tres empates seguidos</t>
+  </si>
+  <si>
+    <t>Osasuna - Real Sociedad</t>
+  </si>
+  <si>
+    <t>2 La Real no pierde desde el primer partido contra el Barcelona, Osasuna bastante irregular, está en tendencia descendente</t>
   </si>
   <si>
     <t>Real Betis - Sevilla</t>
   </si>
   <si>
-    <t>Celta - Barcelona</t>
-  </si>
-  <si>
-    <t>Mallorca - Elche</t>
-  </si>
-  <si>
-    <t>Espanyol - Granada</t>
-  </si>
-  <si>
-    <t>Osasuna - Real Sociedad</t>
-  </si>
-  <si>
-    <t>Real Madrid - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Valencia - Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>Villarreal - Getafe</t>
+    <t>X Un derbi muy díficil, Betis alcanzó máximo y bajó, Sevilla ascendente</t>
   </si>
   <si>
     <t>Jornada 13 - Liga Smartbank</t>
@@ -2155,142 +2203,217 @@
     <t>Fuenlabrada - Girona</t>
   </si>
   <si>
+    <t>El Fuenlabrada empató en el 89 de penalti y en el 96 Stuani hizo el tanto para ganar, va mejorando el Girona</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Eibar</t>
+  </si>
+  <si>
+    <t>No tuvo acierto el Eibar. Bien Valladolid</t>
+  </si>
+  <si>
     <t>Real Oviedo - Málaga</t>
   </si>
   <si>
+    <t>Segunda victoria consecutiva del Oviedo, Málaga decente.</t>
+  </si>
+  <si>
     <t>Real Zaragoza - Mirandés</t>
   </si>
   <si>
+    <t>Gol del Zaragoza en el 1. Y gol del Mirandés en el 95. Justo al principio y al final. Muy triste para el Zaragoza que iba a ganar al fin. El Mirandés fue muy superior. Por desgracia Jim peligra</t>
+  </si>
+  <si>
     <t>Alcorcón - Ibiza</t>
   </si>
   <si>
+    <t>0 tiros a puerta del Alcorcón en casa, muy mala actitud, Jorge Romero muy perdido. Ibiza bien ante un equipo que tiene muy difícil la salvación</t>
+  </si>
+  <si>
     <t>Tenerife - Burgos</t>
   </si>
   <si>
+    <t>Paliza del Tenerife. Muy mal en defensa el Burgos hoy, a diferencia de lo que suele ser habitual en el Burgos</t>
+  </si>
+  <si>
     <t>Jornada 14 - Liga Santander</t>
   </si>
   <si>
+    <t>Levante - Athletic Club</t>
+  </si>
+  <si>
+    <t>Celta - Villarreal</t>
+  </si>
+  <si>
+    <t>Sevilla - Deportivo Alavés</t>
+  </si>
+  <si>
     <t>Atlético de Madrid - Osasuna</t>
   </si>
   <si>
     <t>Barcelona - Espanyol</t>
   </si>
   <si>
-    <t>Celta - Villarreal</t>
-  </si>
-  <si>
     <t>Getafe - Cádiz</t>
   </si>
   <si>
     <t>Granada - Real Madrid</t>
   </si>
   <si>
-    <t>Levante - Athletic Club</t>
+    <t>Elche - Real Betis</t>
   </si>
   <si>
     <t>Real Sociedad - Valencia</t>
   </si>
   <si>
-    <t>Sevilla - Deportivo Alavés</t>
-  </si>
-  <si>
     <t>Rayo Vallecano - Mallorca</t>
   </si>
   <si>
-    <t>Elche - Real Betis</t>
-  </si>
-  <si>
     <t>Jornada 14 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Ponferradina - Huesca</t>
+  </si>
+  <si>
+    <t>Bastante superior la Ponfe, un equipo que debería ser peor que el Huesca. El Huesca consiguió empatar en el 97 de penalti. Tuvo mucha suerte el Huesca, eso sí, le expulsaron a uno de manera injusta</t>
+  </si>
+  <si>
+    <t>Real Sporting - Almería</t>
+  </si>
+  <si>
+    <t>Un poco robo al Sporting por un penalti no pitado</t>
+  </si>
+  <si>
+    <t>Leganés - Cartagena</t>
+  </si>
+  <si>
+    <t>Fue bastante mejor el Leganés, a ver si el cambio de entrenador surge efecto. También es cierto que el Cartagena es un equipo muy modesto, aunque ha ganado a equipos como Ibiza, Amorebita e incluso Sporting</t>
+  </si>
+  <si>
     <t>Amorebieta - Real Valladolid</t>
   </si>
   <si>
+    <t>Increíble baño del Amorebieta que ya ganó también al Almería en casa, hay que tener en cuenta que en casa a veces se crece. Hoy tuvo mucha efectividad. El Valladolid muy mal hoy</t>
+  </si>
+  <si>
+    <t>Mirandés - Lugo</t>
+  </si>
+  <si>
+    <t>Gol del Lugo, remonta el Mirandés, muy bien. Empata el Lugo y otra vez remonta el Mirandés. Muy bien Mirandés, Lugo bastante frágil sobre todo fuera de casa, no gana desde hace 14 partidos</t>
+  </si>
+  <si>
+    <t>Eibar - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Debutó Llorente. Consiguó marcar el Eibar en el 93, mucha intensidad al final. El Oviedo tuvo varias ocasiones, dos palos, mereció algo más</t>
+  </si>
+  <si>
+    <t>Las Palmas - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Dos goles de Jesé, muy bien. Las Palmas está en ascenso directo. Al Fuenlabrada le expulsaron a uno en el 51, aún así, consiguieron marcar el 2 - 1</t>
+  </si>
+  <si>
     <t>Burgos - Real Zaragoza</t>
   </si>
   <si>
-    <t>Eibar - Real Oviedo</t>
+    <t>Marca un buen gol el Zaragoza, al fin gana el Zaragoza y en un campo muy complicado. A ver si esto marca un punto de inflexión</t>
   </si>
   <si>
     <t>Girona - Alcorcón</t>
   </si>
   <si>
+    <t>1 - 1 hasta el 60, plantó cara el Alcorcón hasta ahí, pero después dos goles del Girona en 5 minutos</t>
+  </si>
+  <si>
     <t>Ibiza - Tenerife</t>
   </si>
   <si>
-    <t>Leganés - Cartagena</t>
-  </si>
-  <si>
-    <t>Las Palmas - Fuenlabrada</t>
-  </si>
-  <si>
     <t>Málaga - Real Sociedad B</t>
   </si>
   <si>
-    <t>Mirandés - Lugo</t>
-  </si>
-  <si>
-    <t>Ponferradina - Huesca</t>
-  </si>
-  <si>
-    <t>Real Sporting - Almería</t>
+    <t>Bien Málaga que remontó un 0 - 1. El Sanse sufre</t>
   </si>
   <si>
     <t>Jornada 15 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Granada</t>
+  </si>
+  <si>
     <t>Deportivo Alavés - Celta</t>
   </si>
   <si>
-    <t>Athletic Club - Granada</t>
+    <t>Valencia - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Mallorca - Getafe</t>
+  </si>
+  <si>
+    <t>Villarreal - Barcelona</t>
   </si>
   <si>
     <t>Real Betis - Levante</t>
   </si>
   <si>
-    <t>Mallorca - Getafe</t>
+    <t>Espanyol - Real Sociedad</t>
   </si>
   <si>
     <t>Cádiz - Atlético de Madrid</t>
   </si>
   <si>
-    <t>Espanyol - Real Sociedad</t>
+    <t>Real Madrid - Sevilla</t>
   </si>
   <si>
     <t>Osasuna - Elche</t>
   </si>
   <si>
-    <t>Real Madrid - Sevilla</t>
-  </si>
-  <si>
-    <t>Valencia - Rayo Vallecano</t>
-  </si>
-  <si>
-    <t>Villarreal - Barcelona</t>
-  </si>
-  <si>
     <t>Jornada 15 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Huesca - Leganés</t>
+  </si>
+  <si>
+    <t>Lugo - Ponferradina</t>
+  </si>
+  <si>
+    <t>X Q Lugo es un equipo bastante díficil de ganar, Ponfe no está en su mejor momento</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Las Palmas</t>
+  </si>
+  <si>
+    <t>X Q Las Palmas está demasiado alto, Oviedo no es un equipazo</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Mirandés</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Eibar</t>
+  </si>
+  <si>
+    <t>2 Q El Eibar está bastante fuerte</t>
+  </si>
+  <si>
     <t>Alcorcón - Amorebieta</t>
   </si>
   <si>
+    <t>Real Zaragoza - Real Sporting</t>
+  </si>
+  <si>
+    <t>X Q Zaragoza biene de ganar tras muchos empates y Sporting muy descendente tras empezar muy bien</t>
+  </si>
+  <si>
     <t>Almería - Burgos</t>
   </si>
   <si>
+    <t xml:space="preserve">1 Q Almería en casa pero el Burgos da muchas sorpresas </t>
+  </si>
+  <si>
     <t>Cartagena - Málaga</t>
   </si>
   <si>
-    <t>Fuenlabrada - Eibar</t>
-  </si>
-  <si>
-    <t>Huesca - Leganés</t>
-  </si>
-  <si>
-    <t>Lugo - Ponferradina</t>
-  </si>
-  <si>
-    <t>Real Oviedo - Las Palmas</t>
+    <t>1 Q El Cartagena solo ha empatado una vez, su último partido</t>
   </si>
   <si>
     <t>Real Sociedad B - Ibiza</t>
@@ -2299,12 +2422,6 @@
     <t>Tenerife - Girona</t>
   </si>
   <si>
-    <t>Real Valladolid - Mirandés</t>
-  </si>
-  <si>
-    <t>Real Zaragoza - Real Sporting</t>
-  </si>
-  <si>
     <t>Jornada 16 - Liga Santander</t>
   </si>
   <si>
@@ -2341,39 +2458,39 @@
     <t>Jornada 16 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Real Sporting - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Eibar - Alcorcón</t>
+  </si>
+  <si>
+    <t>Mirandés - Huesca</t>
+  </si>
+  <si>
+    <t>Las Palmas - Real Zaragoza</t>
+  </si>
+  <si>
     <t>Amorebieta - Lugo</t>
   </si>
   <si>
+    <t>Girona - Cartagena</t>
+  </si>
+  <si>
+    <t>Ibiza - Almería</t>
+  </si>
+  <si>
     <t>Burgos - Ponferradina</t>
   </si>
   <si>
-    <t>Eibar - Alcorcón</t>
-  </si>
-  <si>
-    <t>Girona - Cartagena</t>
-  </si>
-  <si>
-    <t>Ibiza - Almería</t>
-  </si>
-  <si>
     <t>Leganés - Real Oviedo</t>
   </si>
   <si>
-    <t>Las Palmas - Real Zaragoza</t>
-  </si>
-  <si>
     <t>Málaga - Tenerife</t>
   </si>
   <si>
-    <t>Mirandés - Huesca</t>
-  </si>
-  <si>
-    <t>Real Sporting - Real Sociedad B</t>
-  </si>
-  <si>
-    <t>Real Valladolid - Fuenlabrada</t>
-  </si>
-  <si>
     <t>Jornada 17 - Liga Santander</t>
   </si>
   <si>
@@ -2410,25 +2527,28 @@
     <t>Jornada 17 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Fuenlabrada - Mirandés</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Amorebieta</t>
+  </si>
+  <si>
+    <t>Málaga - Las Palmas</t>
+  </si>
+  <si>
     <t>Almería - Real Valladolid</t>
   </si>
   <si>
     <t>Cartagena - Burgos</t>
   </si>
   <si>
-    <t>Fuenlabrada - Mirandés</t>
+    <t>Lugo - Eibar</t>
   </si>
   <si>
     <t>Huesca - Ibiza</t>
   </si>
   <si>
-    <t>Lugo - Eibar</t>
-  </si>
-  <si>
-    <t>Málaga - Las Palmas</t>
-  </si>
-  <si>
-    <t>Real Oviedo - Amorebieta</t>
+    <t>Tenerife - Alcorcón</t>
   </si>
   <si>
     <t>Ponferradina - Real Sporting</t>
@@ -2437,9 +2557,6 @@
     <t>Real Sociedad B - Girona</t>
   </si>
   <si>
-    <t>Tenerife - Alcorcón</t>
-  </si>
-  <si>
     <t>Real Zaragoza - Leganés</t>
   </si>
   <si>
@@ -2482,34 +2599,34 @@
     <t>Alcorcón - Lugo</t>
   </si>
   <si>
+    <t>Mirandés - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Burgos - Málaga</t>
+  </si>
+  <si>
     <t>Almería - Huesca</t>
   </si>
   <si>
+    <t>Real Sporting - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Cartagena</t>
+  </si>
+  <si>
+    <t>Leganés - Las Palmas</t>
+  </si>
+  <si>
     <t>Amorebieta - Real Zaragoza</t>
   </si>
   <si>
-    <t>Burgos - Málaga</t>
+    <t>Ibiza - Ponferradina</t>
+  </si>
+  <si>
+    <t>Tenerife - Real Sociedad B</t>
   </si>
   <si>
     <t>Eibar - Girona</t>
-  </si>
-  <si>
-    <t>Ibiza - Ponferradina</t>
-  </si>
-  <si>
-    <t>Leganés - Las Palmas</t>
-  </si>
-  <si>
-    <t>Mirandés - Real Oviedo</t>
-  </si>
-  <si>
-    <t>Real Sporting - Fuenlabrada</t>
-  </si>
-  <si>
-    <t>Tenerife - Real Sociedad B</t>
-  </si>
-  <si>
-    <t>Real Valladolid - Cartagena</t>
   </si>
   <si>
     <t>Jornada 19 - Liga Santander</t>
@@ -3291,7 +3408,7 @@
         <v>50</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
         <v>55</v>
@@ -3815,7 +3932,7 @@
         <v>48</v>
       </c>
       <c r="R7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S7" t="s">
         <v>55</v>
@@ -3946,7 +4063,7 @@
         <v>53</v>
       </c>
       <c r="R8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S8" t="s">
         <v>55</v>
@@ -4208,7 +4325,7 @@
         <v>49</v>
       </c>
       <c r="R10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
         <v>55</v>
@@ -4339,7 +4456,7 @@
         <v>51</v>
       </c>
       <c r="R11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
         <v>55</v>
@@ -4470,7 +4587,7 @@
         <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S12" t="s">
         <v>55</v>
@@ -4717,7 +4834,7 @@
         <v>51</v>
       </c>
       <c r="R14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S14" t="s">
         <v>55</v>
@@ -4979,7 +5096,7 @@
         <v>51</v>
       </c>
       <c r="R16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S16" t="s">
         <v>55</v>
@@ -5110,7 +5227,7 @@
         <v>51</v>
       </c>
       <c r="R17" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S17" t="s">
         <v>55</v>
@@ -5503,7 +5620,7 @@
         <v>51</v>
       </c>
       <c r="R20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S20" t="s">
         <v>55</v>
@@ -5634,7 +5751,7 @@
         <v>51</v>
       </c>
       <c r="R21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S21" t="s">
         <v>55</v>
@@ -5765,7 +5882,7 @@
         <v>53</v>
       </c>
       <c r="R22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="S22" t="s">
         <v>55</v>
@@ -6056,7 +6173,7 @@
         <v>51</v>
       </c>
       <c r="T25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U25" t="s">
         <v>55</v>
@@ -6187,10 +6304,10 @@
         <v>48</v>
       </c>
       <c r="S26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U26" t="s">
         <v>55</v>
@@ -6324,10 +6441,10 @@
         <v>48</v>
       </c>
       <c r="S27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U27" t="s">
         <v>55</v>
@@ -6467,10 +6584,10 @@
         <v>51</v>
       </c>
       <c r="S28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U28" t="s">
         <v>55</v>
@@ -6613,7 +6730,7 @@
         <v>48</v>
       </c>
       <c r="T29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U29" t="s">
         <v>55</v>
@@ -6756,7 +6873,7 @@
         <v>52</v>
       </c>
       <c r="T30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U30" t="s">
         <v>55</v>
@@ -6899,7 +7016,7 @@
         <v>51</v>
       </c>
       <c r="T31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U31" t="s">
         <v>55</v>
@@ -7039,10 +7156,10 @@
         <v>52</v>
       </c>
       <c r="S32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="T32" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U32" t="s">
         <v>55</v>
@@ -7185,7 +7302,7 @@
         <v>48</v>
       </c>
       <c r="T33" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U33" t="s">
         <v>55</v>
@@ -7325,10 +7442,10 @@
         <v>52</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U34" t="s">
         <v>55</v>
@@ -7468,10 +7585,10 @@
         <v>52</v>
       </c>
       <c r="S35" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="U35" t="s">
         <v>55</v>
@@ -7560,19 +7677,19 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>161</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
         <v>51</v>
@@ -7611,10 +7728,10 @@
         <v>48</v>
       </c>
       <c r="S36" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U36" t="s">
         <v>55</v>
@@ -7703,19 +7820,19 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
@@ -7754,10 +7871,10 @@
         <v>48</v>
       </c>
       <c r="S37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U37" t="s">
         <v>55</v>
@@ -7846,10 +7963,10 @@
     </row>
     <row r="38" spans="1:48">
       <c r="E38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G38" t="s">
         <v>48</v>
@@ -7888,10 +8005,10 @@
         <v>48</v>
       </c>
       <c r="S38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U38" t="s">
         <v>55</v>
@@ -7980,13 +8097,13 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G39" t="s">
         <v>51</v>
@@ -8025,10 +8142,10 @@
         <v>51</v>
       </c>
       <c r="S39" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="U39" t="s">
         <v>55</v>
@@ -8117,19 +8234,19 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B40" t="s">
         <v>104</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G40" t="s">
         <v>52</v>
@@ -8171,7 +8288,7 @@
         <v>52</v>
       </c>
       <c r="T40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U40" t="s">
         <v>55</v>
@@ -8260,19 +8377,19 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -8311,10 +8428,10 @@
         <v>52</v>
       </c>
       <c r="S41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U41" t="s">
         <v>55</v>
@@ -8403,19 +8520,19 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
         <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G42" t="s">
         <v>51</v>
@@ -8457,7 +8574,7 @@
         <v>51</v>
       </c>
       <c r="T42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="U42" t="s">
         <v>55</v>
@@ -8546,19 +8663,19 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
         <v>51</v>
@@ -8597,10 +8714,10 @@
         <v>53</v>
       </c>
       <c r="S43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U43" t="s">
         <v>55</v>
@@ -8689,19 +8806,19 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -8740,10 +8857,10 @@
         <v>53</v>
       </c>
       <c r="S44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U44" t="s">
         <v>55</v>
@@ -8832,19 +8949,19 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G45" t="s">
         <v>52</v>
@@ -8886,7 +9003,7 @@
         <v>51</v>
       </c>
       <c r="T45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="U45" t="s">
         <v>55</v>
@@ -8975,19 +9092,19 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
         <v>161</v>
       </c>
       <c r="C46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G46" t="s">
         <v>53</v>
@@ -9029,7 +9146,7 @@
         <v>52</v>
       </c>
       <c r="T46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U46" t="s">
         <v>55</v>
@@ -9118,282 +9235,282 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
         <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
         <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
         <v>71</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="F51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I51" t="s">
         <v>183</v>
       </c>
       <c r="J51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I52" t="s">
         <v>188</v>
       </c>
       <c r="J52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
         <v>86</v>
       </c>
       <c r="C54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B55" t="s">
         <v>161</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B58" t="s">
         <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F58" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B59" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F59" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
         <v>129</v>
       </c>
       <c r="C62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B69" t="s">
         <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K70" t="s">
         <v>55</v>
@@ -9401,155 +9518,155 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
         <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
         <v>71</v>
       </c>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
         <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B78" t="s">
         <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
         <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
         <v>76</v>
       </c>
       <c r="C82" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s">
         <v>66</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
@@ -9557,7 +9674,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
@@ -9565,1124 +9682,1124 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
         <v>76</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
         <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
         <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s">
         <v>104</v>
       </c>
       <c r="C94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B96" t="s">
         <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
         <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B99" t="s">
         <v>81</v>
       </c>
       <c r="C99" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B100" t="s">
         <v>76</v>
       </c>
       <c r="C100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
         <v>76</v>
       </c>
       <c r="C103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s">
         <v>86</v>
       </c>
       <c r="C104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B105" t="s">
         <v>71</v>
       </c>
       <c r="C105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B108" t="s">
         <v>71</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
         <v>71</v>
       </c>
       <c r="C109" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
         <v>129</v>
       </c>
       <c r="C110" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
         <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B115" t="s">
         <v>129</v>
       </c>
       <c r="C115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C118" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B119" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s">
         <v>147</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B121" t="s">
         <v>104</v>
       </c>
       <c r="C121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B122" t="s">
         <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C123" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B124" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C124" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B125" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C125" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B128" t="s">
         <v>76</v>
       </c>
       <c r="C128" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B129" t="s">
         <v>76</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B130" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B131" t="s">
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C132" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C133" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C134" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C135" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B136" t="s">
         <v>147</v>
       </c>
       <c r="C136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B137" t="s">
         <v>71</v>
       </c>
       <c r="C137" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B141" t="s">
         <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B142" t="s">
         <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B143" t="s">
         <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B144" t="s">
         <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B145" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B146" t="s">
         <v>71</v>
       </c>
       <c r="C146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B149" t="s">
         <v>76</v>
       </c>
       <c r="C149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B150" t="s">
         <v>71</v>
       </c>
       <c r="C150" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B153" t="s">
         <v>44</v>
       </c>
       <c r="C153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B154" t="s">
         <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B155" t="s">
         <v>104</v>
       </c>
       <c r="C155" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B156" t="s">
         <v>71</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B158" t="s">
         <v>86</v>
       </c>
       <c r="C158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B159" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C159" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B160" t="s">
         <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B161" t="s">
         <v>104</v>
       </c>
       <c r="C161" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B165" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C165" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B166" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C166" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B167" t="s">
         <v>104</v>
       </c>
       <c r="C167" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B168" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C168" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B169" t="s">
         <v>57</v>
       </c>
       <c r="C169" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B170" t="s">
         <v>76</v>
       </c>
       <c r="C170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B171" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B172" t="s">
         <v>71</v>
       </c>
       <c r="C172" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B173" t="s">
         <v>57</v>
       </c>
       <c r="C173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B174" t="s">
         <v>104</v>
       </c>
       <c r="C174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B175" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B178" t="s">
         <v>44</v>
       </c>
       <c r="C178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B179" t="s">
         <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B180" t="s">
         <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B181" t="s">
         <v>71</v>
       </c>
       <c r="C181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B182" t="s">
         <v>104</v>
       </c>
       <c r="C182" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B183" t="s">
         <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B184" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C184" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B185" t="s">
         <v>57</v>
       </c>
       <c r="C185" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B186" t="s">
         <v>104</v>
       </c>
       <c r="C186" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B187" t="s">
         <v>44</v>
       </c>
       <c r="C187" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B190" t="s">
         <v>129</v>
       </c>
       <c r="C190" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B191" t="s">
         <v>57</v>
       </c>
       <c r="C191" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B192" t="s">
         <v>76</v>
       </c>
       <c r="C192" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B193" t="s">
         <v>71</v>
       </c>
       <c r="C193" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B194" t="s">
         <v>66</v>
       </c>
       <c r="C194" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B195" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C195" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B196" t="s">
         <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B197" t="s">
         <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C198" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B199" t="s">
         <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B200" t="s">
         <v>76</v>
       </c>
       <c r="C200" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B203" t="s">
         <v>71</v>
       </c>
       <c r="C203" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B204" t="s">
         <v>44</v>
       </c>
       <c r="C204" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B205" t="s">
         <v>54</v>
@@ -10690,7 +10807,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B206" t="s">
         <v>54</v>
@@ -10698,2031 +10815,2219 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B208" t="s">
         <v>161</v>
       </c>
       <c r="C208" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B209" t="s">
         <v>76</v>
       </c>
       <c r="C209" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B210" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C210" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B211" t="s">
         <v>161</v>
       </c>
       <c r="C211" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B212" t="s">
         <v>104</v>
       </c>
       <c r="C212" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B215" t="s">
         <v>57</v>
       </c>
       <c r="C215" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B216" t="s">
         <v>186</v>
       </c>
       <c r="C216" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B217" t="s">
         <v>44</v>
       </c>
       <c r="C217" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B218" t="s">
         <v>57</v>
       </c>
       <c r="C218" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B219" t="s">
         <v>57</v>
       </c>
       <c r="C219" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B220" t="s">
         <v>57</v>
       </c>
       <c r="C220" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B221" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C221" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B222" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C222" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B223" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B224" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C224" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B225" t="s">
         <v>71</v>
       </c>
       <c r="C225" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B228" t="s">
         <v>57</v>
       </c>
       <c r="C228" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B229" t="s">
         <v>129</v>
       </c>
       <c r="C229" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B230" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C230" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B231" t="s">
         <v>129</v>
       </c>
       <c r="C231" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B232" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C232" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B233" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C233" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B234" t="s">
         <v>76</v>
       </c>
       <c r="C234" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B235" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C235" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B236" t="s">
         <v>129</v>
       </c>
       <c r="C236" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B237" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C237" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B240" t="s">
         <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C241" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B242" t="s">
         <v>76</v>
       </c>
       <c r="C242" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B243" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C243" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B244" t="s">
         <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B245" t="s">
         <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B246" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C246" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B247" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C247" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B248" t="s">
         <v>57</v>
       </c>
       <c r="C248" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B249" t="s">
         <v>57</v>
       </c>
       <c r="C249" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B250" t="s">
         <v>71</v>
       </c>
       <c r="C250" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B253" t="s">
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B254" t="s">
         <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B255" t="s">
         <v>186</v>
       </c>
       <c r="C255" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B256" t="s">
         <v>44</v>
       </c>
       <c r="C256" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B257" t="s">
         <v>57</v>
       </c>
       <c r="C257" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B258" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C258" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B259" t="s">
         <v>57</v>
       </c>
       <c r="C259" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B260" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C260" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B261" t="s">
         <v>57</v>
       </c>
       <c r="C261" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B262" t="s">
         <v>129</v>
       </c>
       <c r="C262" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B265" t="s">
         <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B266" t="s">
         <v>71</v>
       </c>
       <c r="C266" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B267" t="s">
         <v>161</v>
       </c>
       <c r="C267" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B268" t="s">
         <v>71</v>
       </c>
       <c r="C268" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B269" t="s">
         <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B270" t="s">
         <v>186</v>
       </c>
       <c r="C270" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B271" t="s">
         <v>104</v>
       </c>
       <c r="C271" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B272" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C272" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B273" t="s">
         <v>57</v>
       </c>
       <c r="C273" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B274" t="s">
         <v>76</v>
       </c>
       <c r="C274" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B275" t="s">
         <v>147</v>
       </c>
       <c r="C275" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B278" t="s">
         <v>76</v>
       </c>
       <c r="C278" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B279" t="s">
         <v>104</v>
       </c>
       <c r="C279" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B280" t="s">
         <v>104</v>
       </c>
       <c r="C280" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B281" t="s">
         <v>57</v>
       </c>
       <c r="C281" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="B282" t="s">
+        <v>57</v>
+      </c>
+      <c r="C282" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>662</v>
+        <v>664</v>
+      </c>
+      <c r="B283" t="s">
+        <v>86</v>
+      </c>
+      <c r="C283" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>663</v>
+        <v>666</v>
+      </c>
+      <c r="B284" t="s">
+        <v>209</v>
+      </c>
+      <c r="C284" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>664</v>
+        <v>668</v>
+      </c>
+      <c r="B285" t="s">
+        <v>57</v>
+      </c>
+      <c r="C285" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>665</v>
+        <v>670</v>
+      </c>
+      <c r="B286" t="s">
+        <v>71</v>
+      </c>
+      <c r="C286" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>666</v>
+        <v>672</v>
+      </c>
+      <c r="B287" t="s">
+        <v>585</v>
+      </c>
+      <c r="C287" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="B290" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C290" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="B291" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C291" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B292" t="s">
         <v>76</v>
       </c>
       <c r="C292" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B293" t="s">
         <v>44</v>
       </c>
       <c r="C293" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="B294" t="s">
         <v>76</v>
       </c>
       <c r="C294" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="B295" t="s">
         <v>76</v>
       </c>
       <c r="C295" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B296" t="s">
         <v>66</v>
       </c>
       <c r="C296" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B297" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C297" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B298" t="s">
         <v>76</v>
       </c>
       <c r="C298" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B299" t="s">
         <v>86</v>
       </c>
       <c r="C299" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B300" t="s">
         <v>57</v>
       </c>
       <c r="C300" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>692</v>
+        <v>699</v>
+      </c>
+      <c r="C304" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>693</v>
+        <v>701</v>
+      </c>
+      <c r="C305" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>694</v>
+        <v>703</v>
+      </c>
+      <c r="C306" t="s">
+        <v>704</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>695</v>
+        <v>705</v>
+      </c>
+      <c r="C307" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>696</v>
+        <v>707</v>
+      </c>
+      <c r="C308" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>697</v>
+        <v>709</v>
+      </c>
+      <c r="C309" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>698</v>
+        <v>711</v>
+      </c>
+      <c r="C310" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>699</v>
+        <v>713</v>
+      </c>
+      <c r="C311" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>700</v>
+        <v>715</v>
+      </c>
+      <c r="C312" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>701</v>
+        <v>717</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="B315" t="s">
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>703</v>
+        <v>719</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>704</v>
+        <v>720</v>
       </c>
       <c r="B316" t="s">
         <v>161</v>
       </c>
       <c r="C316" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>706</v>
+        <v>722</v>
       </c>
       <c r="B317" t="s">
         <v>57</v>
       </c>
       <c r="C317" t="s">
-        <v>707</v>
+        <v>723</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>708</v>
+        <v>724</v>
       </c>
       <c r="B318" t="s">
         <v>57</v>
       </c>
       <c r="C318" t="s">
-        <v>709</v>
+        <v>725</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>710</v>
+        <v>726</v>
       </c>
       <c r="B319" t="s">
         <v>161</v>
       </c>
       <c r="C319" t="s">
-        <v>711</v>
+        <v>727</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="321" spans="1:1">
+        <v>728</v>
+      </c>
+      <c r="B320" t="s">
+        <v>76</v>
+      </c>
+      <c r="C320" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="322" spans="1:1">
+        <v>730</v>
+      </c>
+      <c r="B321" t="s">
+        <v>104</v>
+      </c>
+      <c r="C321" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="323" spans="1:1">
+        <v>732</v>
+      </c>
+      <c r="B322" t="s">
+        <v>209</v>
+      </c>
+      <c r="C322" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="324" spans="1:1">
+        <v>734</v>
+      </c>
+      <c r="B323" t="s">
+        <v>57</v>
+      </c>
+      <c r="C323" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="327" spans="1:1">
+        <v>736</v>
+      </c>
+      <c r="B324" t="s">
+        <v>222</v>
+      </c>
+      <c r="C324" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>738</v>
+      </c>
+      <c r="B325" t="s">
+        <v>271</v>
+      </c>
+      <c r="C325" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="328" spans="1:1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="329" spans="1:1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="330" spans="1:1">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="331" spans="1:1">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="332" spans="1:1">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="333" spans="1:1">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="334" spans="1:1">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1">
+        <v>752</v>
+      </c>
+      <c r="B340" t="s">
+        <v>57</v>
+      </c>
+      <c r="C340" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1">
+        <v>754</v>
+      </c>
+      <c r="B341" t="s">
+        <v>161</v>
+      </c>
+      <c r="C341" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1">
+        <v>756</v>
+      </c>
+      <c r="B342" t="s">
+        <v>57</v>
+      </c>
+      <c r="C342" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1">
+        <v>758</v>
+      </c>
+      <c r="B343" t="s">
+        <v>401</v>
+      </c>
+      <c r="C343" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1">
+        <v>760</v>
+      </c>
+      <c r="B344" t="s">
+        <v>369</v>
+      </c>
+      <c r="C344" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1">
+        <v>762</v>
+      </c>
+      <c r="B345" t="s">
+        <v>44</v>
+      </c>
+      <c r="C345" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1">
+        <v>764</v>
+      </c>
+      <c r="B346" t="s">
+        <v>209</v>
+      </c>
+      <c r="C346" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1">
+        <v>766</v>
+      </c>
+      <c r="B347" t="s">
+        <v>161</v>
+      </c>
+      <c r="C347" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1">
+        <v>768</v>
+      </c>
+      <c r="B348" t="s">
+        <v>395</v>
+      </c>
+      <c r="C348" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1">
+        <v>770</v>
+      </c>
+      <c r="B349" t="s">
+        <v>71</v>
+      </c>
+      <c r="C349" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1">
+        <v>771</v>
+      </c>
+      <c r="B350" t="s">
+        <v>209</v>
+      </c>
+      <c r="C350" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1">
+        <v>786</v>
+      </c>
+      <c r="C366" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1">
+        <v>788</v>
+      </c>
+      <c r="C367" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1">
+        <v>791</v>
+      </c>
+      <c r="C369" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1">
+        <v>794</v>
+      </c>
+      <c r="C371" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1">
+        <v>796</v>
+      </c>
+      <c r="C372" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1">
+        <v>798</v>
+      </c>
+      <c r="C373" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>770</v>
+        <v>809</v>
       </c>
     </row>
     <row r="385" spans="1:1">
       <c r="A385" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
     </row>
     <row r="386" spans="1:1">
       <c r="A386" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
     </row>
     <row r="387" spans="1:1">
       <c r="A387" t="s">
-        <v>773</v>
+        <v>812</v>
       </c>
     </row>
     <row r="389" spans="1:1">
       <c r="A389" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
     </row>
     <row r="390" spans="1:1">
       <c r="A390" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
     </row>
     <row r="391" spans="1:1">
       <c r="A391" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
     </row>
     <row r="392" spans="1:1">
       <c r="A392" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
     </row>
     <row r="393" spans="1:1">
       <c r="A393" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
     </row>
     <row r="394" spans="1:1">
       <c r="A394" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
     </row>
     <row r="395" spans="1:1">
       <c r="A395" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
     </row>
     <row r="396" spans="1:1">
       <c r="A396" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
     </row>
     <row r="397" spans="1:1">
       <c r="A397" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
     </row>
     <row r="398" spans="1:1">
       <c r="A398" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
     </row>
     <row r="399" spans="1:1">
       <c r="A399" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
     </row>
     <row r="400" spans="1:1">
       <c r="A400" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
     </row>
     <row r="402" spans="1:1">
       <c r="A402" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
     </row>
     <row r="403" spans="1:1">
       <c r="A403" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
     </row>
     <row r="404" spans="1:1">
       <c r="A404" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
     </row>
     <row r="405" spans="1:1">
       <c r="A405" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
     </row>
     <row r="406" spans="1:1">
       <c r="A406" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
     </row>
     <row r="407" spans="1:1">
       <c r="A407" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
     </row>
     <row r="408" spans="1:1">
       <c r="A408" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
     </row>
     <row r="409" spans="1:1">
       <c r="A409" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
     </row>
     <row r="410" spans="1:1">
       <c r="A410" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
     </row>
     <row r="411" spans="1:1">
       <c r="A411" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
     </row>
     <row r="412" spans="1:1">
       <c r="A412" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
     </row>
     <row r="414" spans="1:1">
       <c r="A414" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
     </row>
     <row r="415" spans="1:1">
       <c r="A415" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
     </row>
     <row r="416" spans="1:1">
       <c r="A416" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>801</v>
+        <v>840</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>802</v>
+        <v>841</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>803</v>
+        <v>842</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>804</v>
+        <v>843</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>805</v>
+        <v>844</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>806</v>
+        <v>845</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>807</v>
+        <v>846</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>808</v>
+        <v>847</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>809</v>
+        <v>848</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>810</v>
+        <v>849</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>811</v>
+        <v>850</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>812</v>
+        <v>851</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>813</v>
+        <v>852</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>814</v>
+        <v>853</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>815</v>
+        <v>854</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>816</v>
+        <v>855</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>817</v>
+        <v>856</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>818</v>
+        <v>857</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>819</v>
+        <v>858</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>820</v>
+        <v>859</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>821</v>
+        <v>860</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>822</v>
+        <v>861</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>823</v>
+        <v>862</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>824</v>
+        <v>863</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>825</v>
+        <v>864</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>828</v>
+        <v>867</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>829</v>
+        <v>868</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>830</v>
+        <v>869</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>831</v>
+        <v>870</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>832</v>
+        <v>871</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>833</v>
+        <v>872</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>834</v>
+        <v>873</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>835</v>
+        <v>874</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>836</v>
+        <v>875</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>837</v>
+        <v>876</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>838</v>
+        <v>877</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>839</v>
+        <v>878</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>840</v>
+        <v>879</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>841</v>
+        <v>880</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>842</v>
+        <v>881</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>843</v>
+        <v>882</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>844</v>
+        <v>883</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>847</v>
+        <v>886</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>848</v>
+        <v>887</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>849</v>
+        <v>888</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>850</v>
+        <v>889</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>851</v>
+        <v>890</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>852</v>
+        <v>891</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>853</v>
+        <v>892</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>854</v>
+        <v>893</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>855</v>
+        <v>894</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>856</v>
+        <v>895</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>883</v>
+        <v>922</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>884</v>
+        <v>923</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>885</v>
+        <v>924</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>886</v>
+        <v>925</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>887</v>
+        <v>926</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>888</v>
+        <v>927</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>889</v>
+        <v>928</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>890</v>
+        <v>929</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>891</v>
+        <v>930</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>892</v>
+        <v>931</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>893</v>
+        <v>932</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>894</v>
+        <v>933</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>895</v>
+        <v>934</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>896</v>
+        <v>935</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>897</v>
+        <v>936</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>898</v>
+        <v>937</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>899</v>
+        <v>938</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>900</v>
+        <v>939</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>901</v>
+        <v>940</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>902</v>
+        <v>941</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>903</v>
+        <v>942</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>904</v>
+        <v>943</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>905</v>
+        <v>944</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>906</v>
+        <v>945</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>907</v>
+        <v>946</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>908</v>
+        <v>947</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>909</v>
+        <v>948</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>910</v>
+        <v>949</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>911</v>
+        <v>950</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>912</v>
+        <v>951</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>913</v>
+        <v>952</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>914</v>
+        <v>953</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>915</v>
+        <v>954</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>916</v>
+        <v>955</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>917</v>
+        <v>956</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>918</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>

--- a/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
+++ b/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="977">
   <si>
     <t>Resultados Temporada 2021-2022</t>
   </si>
@@ -208,7 +208,7 @@
     <t>Barcelona</t>
   </si>
   <si>
-    <t>1: Koeman, 12: Sergi</t>
+    <t>1: Koeman, 12: Sergi¡, 14: Xavi¡</t>
   </si>
   <si>
     <t>Deportivo Alavés - Real Madrid</t>
@@ -652,7 +652,7 @@
     <t>Alcorcón</t>
   </si>
   <si>
-    <t>1: Anquela¡, 7: JorgeFernandez!</t>
+    <t>1: Anquela¡, 7: JorgeFernandez!, 14 FranFernandez</t>
   </si>
   <si>
     <t>Lugo - Real Sociedad B</t>
@@ -2113,28 +2113,31 @@
     <t>Athletic Club - Cádiz</t>
   </si>
   <si>
+    <t>Muy bien Cádiz, muy superior, como en el mismo partido del año pasado. Mal Athletic hoy</t>
+  </si>
+  <si>
     <t>Espanyol - Granada</t>
   </si>
   <si>
-    <t>2 Granada viene en tendencia ascendente o empate</t>
+    <t>2 Granada viene en tendencia ascendente o empate. Fue mejor el Espanyol. Gol de RDT</t>
   </si>
   <si>
     <t>Celta - Barcelona</t>
   </si>
   <si>
-    <t>X Ambos están en un mínimo, quizá un 2 también</t>
+    <t xml:space="preserve">X Ambos están en un mínimo, quizá un 2 también. Empató un 0 - 3 el Celta, bastante mal el Barcelona </t>
   </si>
   <si>
     <t>Deportivo Alavés - Levante</t>
   </si>
   <si>
-    <t>1 El Levante no gana desde hace 20 partidos y está en un mínimo absoluto</t>
+    <t>1 El Levante no gana desde hace 20 partidos y está en un mínimo absoluto. Otra derrota del Levante, bien Alavés</t>
   </si>
   <si>
     <t>Real Madrid - Rayo Vallecano</t>
   </si>
   <si>
-    <t>1 Ambos están en un máximo, mucho cuidado con el Rayo</t>
+    <t>1 Ambos están en un máximo, mucho cuidado con el Rayo. Rayo estuvo a punto de empatar, endeble en defensa el Madrid</t>
   </si>
   <si>
     <t>Villarreal - Getafe</t>
@@ -2146,25 +2149,25 @@
     <t>Valencia - Atlético de Madrid</t>
   </si>
   <si>
-    <t>X Ambos vienen de golear, factor campo</t>
+    <t>X Ambos vienen de golear, factor campo. El Valencia empató un 1-3, bastante mérito. El Atleti está perdiendo demasiados puntos</t>
   </si>
   <si>
     <t>Mallorca - Elche</t>
   </si>
   <si>
-    <t>X Elche en un mínimo absoluto, Mallorca tres empates seguidos</t>
+    <t>X Elche en un mínimo absoluto, Mallorca tres empates seguidos. Cuarto empate consecutivo del Mallorca. Empató el Mallorca en el 95, tuvo más ocasiones el Mallorca</t>
   </si>
   <si>
     <t>Osasuna - Real Sociedad</t>
   </si>
   <si>
-    <t>2 La Real no pierde desde el primer partido contra el Barcelona, Osasuna bastante irregular, está en tendencia descendente</t>
+    <t>2 La Real no pierde desde el primer partido contra el Barcelona, Osasuna bastante irregular, está en tendencia descendente. La Real sigue ganando, increíble, es líder. Osasuna se mantiene en tendencia descendiente</t>
   </si>
   <si>
     <t>Real Betis - Sevilla</t>
   </si>
   <si>
-    <t>X Un derbi muy díficil, Betis alcanzó máximo y bajó, Sevilla ascendente</t>
+    <t>X Un derbi muy díficil, Betis alcanzó máximo y bajó, Sevilla ascendente. Expulsión justa al Betis en el 46, en el 55 gol, fue claramente mejor el Sevilla, quizá sin la expulsión hubiese estado más igualado</t>
   </si>
   <si>
     <t>Jornada 13 - Liga Smartbank</t>
@@ -2242,6 +2245,9 @@
     <t>Levante - Athletic Club</t>
   </si>
   <si>
+    <t>Muy poca cosa, algo más el Athletic. Levante 21 partidos sin ganar</t>
+  </si>
+  <si>
     <t>Celta - Villarreal</t>
   </si>
   <si>
@@ -2374,54 +2380,69 @@
     <t>Huesca - Leganés</t>
   </si>
   <si>
+    <t>Muy mal Huesca, marcó Borja Garcés al que ya convoca Nafti, bien Leganés</t>
+  </si>
+  <si>
     <t>Lugo - Ponferradina</t>
   </si>
   <si>
-    <t>X Q Lugo es un equipo bastante díficil de ganar, Ponfe no está en su mejor momento</t>
+    <t>X Lugo es un equipo bastante díficil de ganar, Ponfe no está en su mejor momento. Remontó la Ponfe en el 92, parece vuelve a su estado de principio de temporada</t>
   </si>
   <si>
     <t>Real Oviedo - Las Palmas</t>
   </si>
   <si>
-    <t>X Q Las Palmas está demasiado alto, Oviedo no es un equipazo</t>
+    <t>X Las Palmas está demasiado alto, Oviedo no es un equipazo. Empate justo</t>
   </si>
   <si>
     <t>Real Valladolid - Mirandés</t>
   </si>
   <si>
+    <t>Mirandés más flojo que de costumbre. Muy bien Valladolid con golazos</t>
+  </si>
+  <si>
     <t>Fuenlabrada - Eibar</t>
   </si>
   <si>
-    <t>2 Q El Eibar está bastante fuerte</t>
+    <t>2 El Eibar está bastante fuerte. Empate justo, se frena un poco la tendencia del Eibar</t>
   </si>
   <si>
     <t>Alcorcón - Amorebieta</t>
   </si>
   <si>
+    <t>Golazo de falta del Amorebieta. Empata de penalti el Alcorcón. En el 91 marca muy solo el Amorebieta, defendió mal el Alcorcón. Y en el 93 el Alcorcón de rebote empata</t>
+  </si>
+  <si>
     <t>Real Zaragoza - Real Sporting</t>
   </si>
   <si>
-    <t>X Q Zaragoza biene de ganar tras muchos empates y Sporting muy descendente tras empezar muy bien</t>
+    <t>X Zaragoza biene de ganar tras muchos empates y Sporting muy descendente tras empezar muy bien. Mal partido del Sporting, sigue bajando y atendiendo a su juego no parece que mejore pronto, venemos cuando toca mínimo. El Zaragoza dos victorias seguidas, muy bien, algo inesperado, primera victoria en casa</t>
   </si>
   <si>
     <t>Almería - Burgos</t>
   </si>
   <si>
-    <t xml:space="preserve">1 Q Almería en casa pero el Burgos da muchas sorpresas </t>
+    <t>1 Almería en casa pero el Burgos da muchas sorpresas. Muy superior el Almería, no dió la sorpresa esta vez el Burgos, es un rival demasiado potente</t>
   </si>
   <si>
     <t>Cartagena - Málaga</t>
   </si>
   <si>
-    <t>1 Q El Cartagena solo ha empatado una vez, su último partido</t>
+    <t>1 El Cartagena solo ha empatado una vez, su último partido. Dos goles de Rubén Castro, indispensable en el Cartagena. El Málaga al final apretó</t>
   </si>
   <si>
     <t>Real Sociedad B - Ibiza</t>
   </si>
   <si>
+    <t>El Ibiza marcó en el 85, fue bastante superior</t>
+  </si>
+  <si>
     <t>Tenerife - Girona</t>
   </si>
   <si>
+    <t>Girona mereció algo más</t>
+  </si>
+  <si>
     <t>Jornada 16 - Liga Santander</t>
   </si>
   <si>
@@ -2461,36 +2482,69 @@
     <t>Real Sporting - Real Sociedad B</t>
   </si>
   <si>
+    <t>Mal el Sporting que sigue en una bajada muy pronunciada, veremos cuál es el límite. La Real fue muy superior, victoria tras tres derrotas seguidas, a ver si sigue subiendo</t>
+  </si>
+  <si>
     <t>Real Valladolid - Fuenlabrada</t>
   </si>
   <si>
+    <t>0 tiros a puerta del Fuenlabrada, muy mal partido hoy. Valladolid tras la roja al Fuenlabrada consiguió marcar dos goles mas</t>
+  </si>
+  <si>
     <t>Eibar - Alcorcón</t>
   </si>
   <si>
+    <t>Mereció más el Alcorcón, no tiene suerte. El Eibar lleva cuatro partidos mediocres tendencia un poco hacia abajo pero puntúa</t>
+  </si>
+  <si>
     <t>Mirandés - Huesca</t>
   </si>
   <si>
+    <t>Bien el Huesca que por fin gana y fuera. Mirandés no tuvo grandes ocasiones</t>
+  </si>
+  <si>
     <t>Las Palmas - Real Zaragoza</t>
   </si>
   <si>
+    <t>Muy endeble en defensa Las Palmas hoy pero llevaba 5 partidos ganando en casa, puede ser el equipo más complicado para poner un 2. Zaragoza increíble, tres victorias seguidas, ha pasado de estar en el descenso a estar séptimo a cuatro puntos del playoff. Muy bien JIM. Recordemos que el Zaragoza sigue imbatido</t>
+  </si>
+  <si>
     <t>Amorebieta - Lugo</t>
   </si>
   <si>
+    <t>Muy buen Lugo pero bastante mal el portero del Amorebieta</t>
+  </si>
+  <si>
     <t>Girona - Cartagena</t>
   </si>
   <si>
+    <t>Fue muy superior el Girona con gol de Stuani</t>
+  </si>
+  <si>
     <t>Ibiza - Almería</t>
   </si>
   <si>
+    <t>El Ibiza no se arrugó y en la segunda parte acabó atacando mucho, pero el Almería no pierde puntos, sigue muy bien</t>
+  </si>
+  <si>
     <t>Burgos - Ponferradina</t>
   </si>
   <si>
+    <t>Unocerismo del Burgos, un fortín el Plantio, la Ponfe mereció el empate</t>
+  </si>
+  <si>
     <t>Leganés - Real Oviedo</t>
   </si>
   <si>
+    <t xml:space="preserve">El Leganés sigue sin suerte, siete tiros a puerta contra uno del Oviedo. </t>
+  </si>
+  <si>
     <t>Málaga - Tenerife</t>
   </si>
   <si>
+    <t>El Tenerife sigue siendo muy inestable aunque tiró mucho más que el Málaga, mereció más</t>
+  </si>
+  <si>
     <t>Jornada 17 - Liga Santander</t>
   </si>
   <si>
@@ -2528,6 +2582,9 @@
   </si>
   <si>
     <t>Fuenlabrada - Mirandés</t>
+  </si>
+  <si>
+    <t>El Fuenlabrada marcó en el 8 y en el 30 le expulsaron a un jugador. El Mirandés atacó mucho más contra 10, 30% vs 70% de posesión y consiguió empatar en el 84. Empate justo</t>
   </si>
   <si>
     <t>Real Oviedo - Amorebieta</t>
@@ -3411,7 +3468,7 @@
         <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T3" t="s">
         <v>55</v>
@@ -3542,7 +3599,7 @@
         <v>48</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T4" t="s">
         <v>55</v>
@@ -3673,7 +3730,7 @@
         <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T5" t="s">
         <v>55</v>
@@ -3804,7 +3861,7 @@
         <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="T6" t="s">
         <v>55</v>
@@ -3935,7 +3992,7 @@
         <v>51</v>
       </c>
       <c r="S7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T7" t="s">
         <v>55</v>
@@ -4066,7 +4123,7 @@
         <v>52</v>
       </c>
       <c r="S8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T8" t="s">
         <v>55</v>
@@ -4197,7 +4254,7 @@
         <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T9" t="s">
         <v>55</v>
@@ -4328,7 +4385,7 @@
         <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T10" t="s">
         <v>55</v>
@@ -4459,7 +4516,7 @@
         <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T11" t="s">
         <v>55</v>
@@ -4590,10 +4647,10 @@
         <v>51</v>
       </c>
       <c r="S12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U12" t="s">
         <v>55</v>
@@ -4712,7 +4769,7 @@
         <v>52</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T13" t="s">
         <v>55</v>
@@ -4837,7 +4894,7 @@
         <v>51</v>
       </c>
       <c r="S14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T14" t="s">
         <v>55</v>
@@ -4968,7 +5025,7 @@
         <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T15" t="s">
         <v>55</v>
@@ -5099,10 +5156,10 @@
         <v>52</v>
       </c>
       <c r="S16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="U16" t="s">
         <v>55</v>
@@ -5230,7 +5287,7 @@
         <v>48</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T17" t="s">
         <v>55</v>
@@ -5361,7 +5418,7 @@
         <v>51</v>
       </c>
       <c r="S18" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T18" t="s">
         <v>55</v>
@@ -5492,7 +5549,7 @@
         <v>52</v>
       </c>
       <c r="S19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T19" t="s">
         <v>55</v>
@@ -5623,7 +5680,7 @@
         <v>52</v>
       </c>
       <c r="S20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T20" t="s">
         <v>55</v>
@@ -5754,7 +5811,7 @@
         <v>51</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="T21" t="s">
         <v>55</v>
@@ -5885,7 +5942,7 @@
         <v>51</v>
       </c>
       <c r="S22" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T22" t="s">
         <v>55</v>
@@ -6176,10 +6233,10 @@
         <v>51</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W25" t="s">
         <v>55</v>
@@ -6310,10 +6367,10 @@
         <v>52</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W26" t="s">
         <v>55</v>
@@ -6447,10 +6504,10 @@
         <v>48</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W27" t="s">
         <v>55</v>
@@ -6590,10 +6647,10 @@
         <v>48</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W28" t="s">
         <v>55</v>
@@ -6733,10 +6790,10 @@
         <v>48</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W29" t="s">
         <v>55</v>
@@ -6876,10 +6933,10 @@
         <v>51</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W30" t="s">
         <v>55</v>
@@ -7019,10 +7076,10 @@
         <v>52</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W31" t="s">
         <v>55</v>
@@ -7162,10 +7219,10 @@
         <v>51</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V32" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W32" t="s">
         <v>55</v>
@@ -7305,10 +7362,10 @@
         <v>48</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V33" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W33" t="s">
         <v>55</v>
@@ -7448,13 +7505,13 @@
         <v>48</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X34" t="s">
         <v>55</v>
@@ -7591,13 +7648,13 @@
         <v>190</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V35" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="X35" t="s">
         <v>55</v>
@@ -7734,10 +7791,10 @@
         <v>48</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W36" t="s">
         <v>55</v>
@@ -7877,10 +7934,10 @@
         <v>49</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="W37" t="s">
         <v>55</v>
@@ -8011,10 +8068,10 @@
         <v>51</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W38" t="s">
         <v>55</v>
@@ -8148,10 +8205,10 @@
         <v>48</v>
       </c>
       <c r="U39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W39" t="s">
         <v>55</v>
@@ -8291,10 +8348,10 @@
         <v>51</v>
       </c>
       <c r="U40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="V40" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W40" t="s">
         <v>55</v>
@@ -8434,10 +8491,10 @@
         <v>52</v>
       </c>
       <c r="U41" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V41" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W41" t="s">
         <v>55</v>
@@ -8577,10 +8634,10 @@
         <v>49</v>
       </c>
       <c r="U42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W42" t="s">
         <v>55</v>
@@ -8720,10 +8777,10 @@
         <v>51</v>
       </c>
       <c r="U43" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="V43" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="W43" t="s">
         <v>55</v>
@@ -8863,10 +8920,10 @@
         <v>52</v>
       </c>
       <c r="U44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="W44" t="s">
         <v>55</v>
@@ -9006,10 +9063,10 @@
         <v>53</v>
       </c>
       <c r="U45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W45" t="s">
         <v>55</v>
@@ -9149,10 +9206,10 @@
         <v>52</v>
       </c>
       <c r="U46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="W46" t="s">
         <v>55</v>
@@ -11737,367 +11794,406 @@
       <c r="A303" t="s">
         <v>698</v>
       </c>
+      <c r="B303" t="s">
+        <v>161</v>
+      </c>
+      <c r="C303" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="B304" t="s">
+        <v>104</v>
       </c>
       <c r="C304" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>701</v>
+        <v>702</v>
+      </c>
+      <c r="B305" t="s">
+        <v>186</v>
       </c>
       <c r="C305" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="B306" t="s">
+        <v>209</v>
       </c>
       <c r="C306" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>705</v>
+        <v>706</v>
+      </c>
+      <c r="B307" t="s">
+        <v>209</v>
       </c>
       <c r="C307" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="B308" t="s">
+        <v>44</v>
       </c>
       <c r="C308" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>709</v>
+        <v>710</v>
+      </c>
+      <c r="B309" t="s">
+        <v>186</v>
       </c>
       <c r="C309" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="B310" t="s">
+        <v>129</v>
       </c>
       <c r="C310" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>713</v>
+        <v>714</v>
+      </c>
+      <c r="B311" t="s">
+        <v>222</v>
       </c>
       <c r="C311" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="B312" t="s">
+        <v>222</v>
       </c>
       <c r="C312" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B315" t="s">
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B316" t="s">
         <v>161</v>
       </c>
       <c r="C316" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B317" t="s">
         <v>57</v>
       </c>
       <c r="C317" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B318" t="s">
         <v>57</v>
       </c>
       <c r="C318" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B319" t="s">
         <v>161</v>
       </c>
       <c r="C319" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B320" t="s">
         <v>76</v>
       </c>
       <c r="C320" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B321" t="s">
         <v>104</v>
       </c>
       <c r="C321" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B322" t="s">
         <v>209</v>
       </c>
       <c r="C322" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B323" t="s">
         <v>57</v>
       </c>
       <c r="C323" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B324" t="s">
         <v>222</v>
       </c>
       <c r="C324" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B325" t="s">
         <v>271</v>
       </c>
       <c r="C325" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>741</v>
+        <v>742</v>
+      </c>
+      <c r="B328" t="s">
+        <v>71</v>
+      </c>
+      <c r="C328" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B340" t="s">
         <v>57</v>
       </c>
       <c r="C340" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B341" t="s">
         <v>161</v>
       </c>
       <c r="C341" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B342" t="s">
         <v>57</v>
       </c>
       <c r="C342" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B343" t="s">
         <v>401</v>
       </c>
       <c r="C343" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B344" t="s">
         <v>369</v>
       </c>
       <c r="C344" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B345" t="s">
         <v>44</v>
       </c>
       <c r="C345" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B346" t="s">
         <v>209</v>
       </c>
       <c r="C346" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B347" t="s">
         <v>161</v>
       </c>
       <c r="C347" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B348" t="s">
         <v>395</v>
       </c>
       <c r="C348" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B349" t="s">
         <v>71</v>
@@ -12108,926 +12204,1046 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B350" t="s">
         <v>209</v>
       </c>
       <c r="C350" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>785</v>
+        <v>787</v>
+      </c>
+      <c r="B365" t="s">
+        <v>222</v>
+      </c>
+      <c r="C365" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>786</v>
+        <v>789</v>
+      </c>
+      <c r="B366" t="s">
+        <v>76</v>
       </c>
       <c r="C366" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>788</v>
+        <v>791</v>
+      </c>
+      <c r="B367" t="s">
+        <v>57</v>
       </c>
       <c r="C367" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>790</v>
+        <v>793</v>
+      </c>
+      <c r="B368" t="s">
+        <v>395</v>
+      </c>
+      <c r="C368" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>791</v>
+        <v>795</v>
+      </c>
+      <c r="B369" t="s">
+        <v>71</v>
       </c>
       <c r="C369" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>793</v>
+        <v>797</v>
+      </c>
+      <c r="B370" t="s">
+        <v>129</v>
+      </c>
+      <c r="C370" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>794</v>
+        <v>799</v>
+      </c>
+      <c r="B371" t="s">
+        <v>104</v>
       </c>
       <c r="C371" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>796</v>
+        <v>801</v>
+      </c>
+      <c r="B372" t="s">
+        <v>104</v>
       </c>
       <c r="C372" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>798</v>
+        <v>803</v>
+      </c>
+      <c r="B373" t="s">
+        <v>395</v>
       </c>
       <c r="C373" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>800</v>
+        <v>805</v>
+      </c>
+      <c r="B374" t="s">
+        <v>161</v>
+      </c>
+      <c r="C374" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>801</v>
+        <v>807</v>
+      </c>
+      <c r="B375" t="s">
+        <v>209</v>
+      </c>
+      <c r="C375" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>805</v>
+        <v>812</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>806</v>
+        <v>813</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1">
+        <v>821</v>
+      </c>
+      <c r="B390" t="s">
+        <v>161</v>
+      </c>
+      <c r="C390" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1">
+        <v>823</v>
+      </c>
+      <c r="B391" t="s">
+        <v>86</v>
+      </c>
+      <c r="C391" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1">
+        <v>825</v>
+      </c>
+      <c r="B392" t="s">
+        <v>209</v>
+      </c>
+      <c r="C392" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1">
+        <v>827</v>
+      </c>
+      <c r="B393" t="s">
+        <v>161</v>
+      </c>
+      <c r="C393" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1">
+        <v>829</v>
+      </c>
+      <c r="B394" t="s">
+        <v>268</v>
+      </c>
+      <c r="C394" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1">
+        <v>831</v>
+      </c>
+      <c r="B395" t="s">
+        <v>147</v>
+      </c>
+      <c r="C395" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1">
+        <v>833</v>
+      </c>
+      <c r="B396" t="s">
+        <v>104</v>
+      </c>
+      <c r="C396" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1">
+        <v>835</v>
+      </c>
+      <c r="B397" t="s">
+        <v>161</v>
+      </c>
+      <c r="C397" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1">
+        <v>837</v>
+      </c>
+      <c r="B398" t="s">
+        <v>44</v>
+      </c>
+      <c r="C398" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1">
+        <v>839</v>
+      </c>
+      <c r="B399" t="s">
+        <v>71</v>
+      </c>
+      <c r="C399" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1">
+        <v>841</v>
+      </c>
+      <c r="B400" t="s">
+        <v>44</v>
+      </c>
+      <c r="C400" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1">
+        <v>855</v>
+      </c>
+      <c r="B415" t="s">
+        <v>57</v>
+      </c>
+      <c r="C415" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
     </row>
     <row r="417" spans="1:1">
       <c r="A417" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
     </row>
     <row r="418" spans="1:1">
       <c r="A418" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
     </row>
     <row r="419" spans="1:1">
       <c r="A419" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="420" spans="1:1">
       <c r="A420" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
     </row>
     <row r="421" spans="1:1">
       <c r="A421" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
     </row>
     <row r="422" spans="1:1">
       <c r="A422" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
     </row>
     <row r="423" spans="1:1">
       <c r="A423" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
     </row>
     <row r="424" spans="1:1">
       <c r="A424" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
     </row>
     <row r="425" spans="1:1">
       <c r="A425" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
     </row>
     <row r="427" spans="1:1">
       <c r="A427" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
     </row>
     <row r="428" spans="1:1">
       <c r="A428" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
     </row>
     <row r="429" spans="1:1">
       <c r="A429" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
     </row>
     <row r="430" spans="1:1">
       <c r="A430" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
     </row>
     <row r="431" spans="1:1">
       <c r="A431" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
     </row>
     <row r="432" spans="1:1">
       <c r="A432" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
     </row>
     <row r="433" spans="1:1">
       <c r="A433" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
     </row>
     <row r="435" spans="1:1">
       <c r="A435" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
     </row>
     <row r="436" spans="1:1">
       <c r="A436" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
     </row>
     <row r="439" spans="1:1">
       <c r="A439" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
     </row>
     <row r="440" spans="1:1">
       <c r="A440" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
     </row>
     <row r="442" spans="1:1">
       <c r="A442" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
     </row>
     <row r="443" spans="1:1">
       <c r="A443" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
     </row>
     <row r="444" spans="1:1">
       <c r="A444" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
     </row>
     <row r="445" spans="1:1">
       <c r="A445" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
     </row>
     <row r="446" spans="1:1">
       <c r="A446" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
     </row>
     <row r="448" spans="1:1">
       <c r="A448" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
     </row>
     <row r="449" spans="1:1">
       <c r="A449" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="450" spans="1:1">
       <c r="A450" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
     </row>
     <row r="452" spans="1:1">
       <c r="A452" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
     </row>
     <row r="453" spans="1:1">
       <c r="A453" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
     </row>
     <row r="454" spans="1:1">
       <c r="A454" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
     </row>
     <row r="455" spans="1:1">
       <c r="A455" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
     </row>
     <row r="457" spans="1:1">
       <c r="A457" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
     </row>
     <row r="458" spans="1:1">
       <c r="A458" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
     </row>
     <row r="459" spans="1:1">
       <c r="A459" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
     </row>
     <row r="460" spans="1:1">
       <c r="A460" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
     </row>
     <row r="461" spans="1:1">
       <c r="A461" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
     </row>
     <row r="462" spans="1:1">
       <c r="A462" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
     </row>
     <row r="464" spans="1:1">
       <c r="A464" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
     </row>
     <row r="465" spans="1:1">
       <c r="A465" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
     </row>
     <row r="467" spans="1:1">
       <c r="A467" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
     </row>
     <row r="468" spans="1:1">
       <c r="A468" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
     </row>
     <row r="469" spans="1:1">
       <c r="A469" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
     </row>
     <row r="470" spans="1:1">
       <c r="A470" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
     </row>
     <row r="471" spans="1:1">
       <c r="A471" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
     </row>
     <row r="472" spans="1:1">
       <c r="A472" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
     </row>
     <row r="473" spans="1:1">
       <c r="A473" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="474" spans="1:1">
       <c r="A474" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
     </row>
     <row r="475" spans="1:1">
       <c r="A475" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
     </row>
     <row r="477" spans="1:1">
       <c r="A477" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
     </row>
     <row r="478" spans="1:1">
       <c r="A478" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
     </row>
     <row r="479" spans="1:1">
       <c r="A479" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
     </row>
     <row r="480" spans="1:1">
       <c r="A480" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
     </row>
     <row r="481" spans="1:1">
       <c r="A481" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
     </row>
     <row r="482" spans="1:1">
       <c r="A482" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
     </row>
     <row r="483" spans="1:1">
       <c r="A483" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
     </row>
     <row r="484" spans="1:1">
       <c r="A484" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
     </row>
     <row r="485" spans="1:1">
       <c r="A485" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
     </row>
     <row r="486" spans="1:1">
       <c r="A486" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
     </row>
     <row r="487" spans="1:1">
       <c r="A487" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
     </row>
     <row r="489" spans="1:1">
       <c r="A489" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
     </row>
     <row r="490" spans="1:1">
       <c r="A490" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
     </row>
     <row r="491" spans="1:1">
       <c r="A491" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
     </row>
     <row r="492" spans="1:1">
       <c r="A492" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
     </row>
     <row r="493" spans="1:1">
       <c r="A493" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
     </row>
     <row r="494" spans="1:1">
       <c r="A494" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
     </row>
     <row r="495" spans="1:1">
       <c r="A495" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
     </row>
     <row r="496" spans="1:1">
       <c r="A496" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
+++ b/LaLigaEstadisticas/src/main/database/Quiniela Script.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2984" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3362" uniqueCount="1260">
   <si>
     <t>Resultados Temporada 2021-2022</t>
   </si>
@@ -199,6 +199,9 @@
     <t>1: Ancelotti</t>
   </si>
   <si>
+    <t>APLZ J13 2</t>
+  </si>
+  <si>
     <t>Cádiz - Levante</t>
   </si>
   <si>
@@ -652,7 +655,7 @@
     <t>Alcorcón</t>
   </si>
   <si>
-    <t>1: Anquela¡, 7: JorgeFernandez!, 14 FranFernandez</t>
+    <t>1: Anquela¡, 7: JorgeFernandez!, 14 FranFernandez!</t>
   </si>
   <si>
     <t>Lugo - Real Sociedad B</t>
@@ -1600,6 +1603,9 @@
     <t>Real Madrid - Athletic Club</t>
   </si>
   <si>
+    <t>1 - 0 Tuvo muchas ocasiones el Athletic pero no tiene gol. El Madrid lleva dos partidos que gana pero muy justo</t>
+  </si>
+  <si>
     <t>Rayo Vallecano - Elche</t>
   </si>
   <si>
@@ -2251,27 +2257,51 @@
     <t>Celta - Villarreal</t>
   </si>
   <si>
+    <t>Celta muy mala racha, casi mínimo absoluto, Villarreal ganó y salió de su mínimo. X. El VIllarreal concedió bastante, no mejora. Celta en su nivel</t>
+  </si>
+  <si>
     <t>Sevilla - Deportivo Alavés</t>
   </si>
   <si>
+    <t>Sevilla va muy bien y Alavés está subiendo mucho tras mínimo absoluto. 1. Alavés estaba subiendo y sigue subiendo, muy bien. Sevilla puede haber llegado a su máximo</t>
+  </si>
+  <si>
     <t>Atlético de Madrid - Osasuna</t>
   </si>
   <si>
+    <t>Atleti pierde muchos puntos, Osasuna bajando mucho pero le falta un poco para llegar al mínimo. 1. El Atleti recupera el unocerismo, marcó en el 87. Hasta entonces bien Osasuna</t>
+  </si>
+  <si>
     <t>Barcelona - Espanyol</t>
   </si>
   <si>
+    <t>Xavi, Derbi, gana Barcelona fácil. 1. Se nota en la presión y marcas jugadores Xavi, va mejorando algo el Barcelona. Espanyol mereció algo más pero falló demasiado. MANGAZO</t>
+  </si>
+  <si>
     <t>Getafe - Cádiz</t>
   </si>
   <si>
+    <t>Mínimo Getafe pero veo difícil que gane. X. Veeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeer</t>
+  </si>
+  <si>
     <t>Granada - Real Madrid</t>
   </si>
   <si>
+    <t>Granada no es el de la temporada pasada. 2. Muy superior el Madrid con Asensio marcando</t>
+  </si>
+  <si>
     <t>Elche - Real Betis</t>
   </si>
   <si>
+    <t>Elche mínimo, Betis en tendencia descendente. 1. Elche no sale de su mínimo y ya está en uno absoluto, le costó el puesto a Escrivá. Veremos si mejora el Elche. Los tres goles del Betis en 15 minutos</t>
+  </si>
+  <si>
     <t>Real Sociedad - Valencia</t>
   </si>
   <si>
+    <t>Es mejor la Real. 1. Partido muy igualado con muchas ocasiones, expulsaron a uno de la Real y sufrió un poco más</t>
+  </si>
+  <si>
     <t>Rayo Vallecano - Mallorca</t>
   </si>
   <si>
@@ -2347,33 +2377,63 @@
     <t>Athletic Club - Granada</t>
   </si>
   <si>
+    <t>Partido muy tosco, el Granada perdió mucho tiempo pero le empataron en el 76 de gol en propia</t>
+  </si>
+  <si>
     <t>Deportivo Alavés - Celta</t>
   </si>
   <si>
+    <t>El Celta de penalti y en el rechace consiguió ganar, victoria importante para el Celta</t>
+  </si>
+  <si>
     <t>Valencia - Rayo Vallecano</t>
   </si>
   <si>
+    <t>El Rayo sigue muy bien. Valencia decente</t>
+  </si>
+  <si>
     <t>Mallorca - Getafe</t>
   </si>
   <si>
+    <t>Poca cosa, Getafe no pierde al menos</t>
+  </si>
+  <si>
     <t>Villarreal - Barcelona</t>
   </si>
   <si>
+    <t>Tuvo bastante suerte el Barcelona, casi empata o incluso gana el VIllarreal que mereció más pero en los últimos minutos encajó dos goles</t>
+  </si>
+  <si>
     <t>Real Betis - Levante</t>
   </si>
   <si>
+    <t>El Levante sigue muy mal, goleada del Betis</t>
+  </si>
+  <si>
     <t>Espanyol - Real Sociedad</t>
   </si>
   <si>
+    <t>Primera derrota de la Real en 13 partidos desde el partido contra el Barcelona en su casa. Puede seguir bajando ahora. Bien Espanyol</t>
+  </si>
+  <si>
     <t>Cádiz - Atlético de Madrid</t>
   </si>
   <si>
+    <t>Paliza del Atleti a un mal Cádiz que está en descenso</t>
+  </si>
+  <si>
     <t>Real Madrid - Sevilla</t>
   </si>
   <si>
+    <t>Golazo de Vinicius para ganar el partido. Sevilla jugó bastante bien, mereció más</t>
+  </si>
+  <si>
     <t>Osasuna - Elche</t>
   </si>
   <si>
+    <t>Elche a 0 puntos del descenso, empata con el entrenador interino Mantecón</t>
+  </si>
+  <si>
     <t>Jornada 15 - Liga Smartbank</t>
   </si>
   <si>
@@ -2449,33 +2509,63 @@
     <t>Atlético de Madrid - Mallorca</t>
   </si>
   <si>
+    <t>Gana Atleti. 1. Muy mal el Atleti, sigue perdiendo muchos puntos y en casa. Mallorca genial</t>
+  </si>
+  <si>
     <t>Barcelona - Real Betis</t>
   </si>
   <si>
+    <t>Gana Barcelona claramente, Betis juega demasiado bien. 1</t>
+  </si>
+  <si>
     <t>Celta - Valencia</t>
   </si>
   <si>
+    <t>X. El Celta solo ha ganado una vez en casa, muy mal. Valencia bien</t>
+  </si>
+  <si>
     <t>Getafe - Athletic Club</t>
   </si>
   <si>
+    <t>0 - 0, correcto. Entretenido</t>
+  </si>
+  <si>
     <t>Granada - Deportivo Alavés</t>
   </si>
   <si>
+    <t>Dos equipos al borde del descenso, el gol del Alavés fue en propia puerta</t>
+  </si>
+  <si>
     <t>Levante - Osasuna</t>
   </si>
   <si>
+    <t>Debuta Francisco como entrenador del Levante. 1. Poca cosa</t>
+  </si>
+  <si>
     <t>Real Sociedad - Real Madrid</t>
   </si>
   <si>
+    <t>La Real está muy bien, Madrid los dos últimos partidos los pudo perder perfectamente. X</t>
+  </si>
+  <si>
     <t>Sevilla - Villarreal</t>
   </si>
   <si>
+    <t>Sevilla es superior, pero no está bien últimamente. X</t>
+  </si>
+  <si>
     <t>Rayo Vallecano - Espanyol</t>
   </si>
   <si>
+    <t>Rayo es muy bueno. 1. Confirmamos</t>
+  </si>
+  <si>
     <t>Elche - Cádiz</t>
   </si>
   <si>
+    <t>2. Goleada al Cádiz que no mejora, peligra y mucho Cervera, si pierde el siguiene le echan</t>
+  </si>
+  <si>
     <t>Jornada 16 - Liga Smartbank</t>
   </si>
   <si>
@@ -2566,6 +2656,9 @@
     <t>Espanyol - Levante</t>
   </si>
   <si>
+    <t>4 - 3</t>
+  </si>
+  <si>
     <t>Osasuna - Barcelona</t>
   </si>
   <si>
@@ -2590,102 +2683,189 @@
     <t>Real Oviedo - Amorebieta</t>
   </si>
   <si>
+    <t>Muy poco del Amorebieta, es bastante irregular. Bien Oviedo</t>
+  </si>
+  <si>
     <t>Málaga - Las Palmas</t>
   </si>
   <si>
+    <t>Málaga muchas victorias seguidas, Las Palmas empate derrota. 2. Expulsaron a uno de Las Palmas en el 55, eso marcó bastante, aun así consiguió empatar Las Palmas, pero después el Málaga volvió a marcar. A un punto del playoff el Málaga aunque parezca que no. Además nunca perdió en casa</t>
+  </si>
+  <si>
     <t>Almería - Real Valladolid</t>
   </si>
   <si>
+    <t>Q Almería es mejor pero puede dar la sorpresa el Valladolid que ganó muy bien el anterior. 1. Hasta el 37 iba ganando el Valladolid pero le expulsaron a uno y concedió tres goles. Un único disparo del Valladolid. Se confirma que Almería es superior</t>
+  </si>
+  <si>
     <t>Cartagena - Burgos</t>
   </si>
   <si>
+    <t>Q Muy irregular Cartagena 1X. Previsible</t>
+  </si>
+  <si>
     <t>Lugo - Eibar</t>
   </si>
   <si>
+    <t>Q Lugo salió de un mínimo, nunca ganó dos partidos seguidos. X. Partido muy loco</t>
+  </si>
+  <si>
     <t>Huesca - Ibiza</t>
   </si>
   <si>
+    <t>Sigue mal el Huesca, no mejora. Tuvo más ocasiones el Huesca pero mal</t>
+  </si>
+  <si>
     <t>Tenerife - Alcorcón</t>
   </si>
   <si>
+    <t>Q Tenerife últimas dos victorias en casa. Alcorcón minímo absoluto, muy difícil que gane en las islas. 1. Alcorcón no marca ni al arcoiris</t>
+  </si>
+  <si>
     <t>Ponferradina - Real Sporting</t>
   </si>
   <si>
+    <t>Q Mínimo casi absoluto del Sporting. 2. Sporting no sale del mínimo y ya es uno absoluto, muy mal, peligra y mucho Galleguín, cambió a 5 defensas y los jugadores no sabían. Ponferradina metió un baño curioso</t>
+  </si>
+  <si>
     <t>Real Sociedad B - Girona</t>
   </si>
   <si>
+    <t>El Sanse había ganado al Sporting tras llegar a un mínimo absoluto y vuelve al mínimo. Bien Girona a ver si va mejorando</t>
+  </si>
+  <si>
     <t>Real Zaragoza - Leganés</t>
   </si>
   <si>
+    <t>Primera derrota del Zaragoza y en casa, parece que alcanzó su máximo absoluto muy alto, bien. Leganés estaba saliendo de un mínimo y sube bastante rápido</t>
+  </si>
+  <si>
     <t>Jornada 18 - Liga Santander</t>
   </si>
   <si>
+    <t>Celta - Espanyol</t>
+  </si>
+  <si>
+    <t>Segunda victoria en casa del Celta que ganó sin complicaciones</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>1 En casa el Rayo gana casi siempre, Alavés no mejora</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Villarreal</t>
+  </si>
+  <si>
+    <t>1 Villarreal por fin gana fuera, la Real venia de muy mala racha y sigue bajando</t>
+  </si>
+  <si>
+    <t>Barcelona - Elche</t>
+  </si>
+  <si>
+    <t>1 Con mucho esfuerzo el Barcelona consigue ganar a un Elche que pudo empatar fácil</t>
+  </si>
+  <si>
+    <t>Sevilla - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>2 -1</t>
+  </si>
+  <si>
+    <t>1-1 El Sevilla deshizo el 1-1 en el 88, el Atleti sigue perdiendo demasiado, tres derrotas seguidas en Liga, algo que nunca hizo el Cholo. Acaba esta jornada fuera de Champions</t>
+  </si>
+  <si>
+    <t>Granada - Mallorca</t>
+  </si>
+  <si>
     <t>Athletic Club - Real Betis</t>
   </si>
   <si>
-    <t>Barcelona - Elche</t>
-  </si>
-  <si>
-    <t>Celta - Espanyol</t>
+    <t>1</t>
   </si>
   <si>
     <t>Getafe - Osasuna</t>
   </si>
   <si>
-    <t>Granada - Mallorca</t>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Real Madrid - Cádiz</t>
   </si>
   <si>
     <t>Levante - Valencia</t>
   </si>
   <si>
-    <t>Real Madrid - Cádiz</t>
-  </si>
-  <si>
-    <t>Real Sociedad - Villarreal</t>
-  </si>
-  <si>
-    <t>Sevilla - Atlético de Madrid</t>
-  </si>
-  <si>
-    <t>Rayo Vallecano - Deportivo Alavés</t>
-  </si>
-  <si>
     <t>Jornada 18 - Liga Smartbank</t>
   </si>
   <si>
     <t>Alcorcón - Lugo</t>
   </si>
   <si>
+    <t>Alcorcón no sale del mínimo, se estabiliza ahí. Lugo muy irregular</t>
+  </si>
+  <si>
     <t>Mirandés - Real Oviedo</t>
   </si>
   <si>
+    <t>Fue bastante superior el Mirandés pero el Oviedo marcó un golazo</t>
+  </si>
+  <si>
     <t>Burgos - Málaga</t>
   </si>
   <si>
+    <t>El Málaga no gana fuera de casa desde Abril, anterior temporada.</t>
+  </si>
+  <si>
     <t>Almería - Huesca</t>
   </si>
   <si>
+    <t>Empate justo, desplazamiento más complicado de la temporada para el Huesca y al menos empató pero no marca</t>
+  </si>
+  <si>
     <t>Real Sporting - Fuenlabrada</t>
   </si>
   <si>
+    <t>Sporting no mejora, no cambia su tendencia descendente</t>
+  </si>
+  <si>
     <t>Real Valladolid - Cartagena</t>
   </si>
   <si>
+    <t>4 victorias seguidas del Valladolid en casa, bastante bien, a cuatro puntos del ascenso directo. Cartagena poca cosa</t>
+  </si>
+  <si>
     <t>Leganés - Las Palmas</t>
   </si>
   <si>
+    <t xml:space="preserve">Bastante sorprendente, </t>
+  </si>
+  <si>
     <t>Amorebieta - Real Zaragoza</t>
   </si>
   <si>
+    <t>El Zaragoza vuelve a la racha de empates</t>
+  </si>
+  <si>
     <t>Ibiza - Ponferradina</t>
   </si>
   <si>
+    <t>La Ponfe está en racha, bastante bien aunque tuvo únicamente un 36% de posesión</t>
+  </si>
+  <si>
     <t>Tenerife - Real Sociedad B</t>
   </si>
   <si>
+    <t>Muy superior el Tenerife</t>
+  </si>
+  <si>
     <t>Eibar - Girona</t>
   </si>
   <si>
+    <t>Partido muy loco, pero es mucho mejor equipo el Eibar actualmente</t>
+  </si>
+  <si>
     <t>Jornada 19 - Liga Santander</t>
   </si>
   <si>
@@ -2725,36 +2905,69 @@
     <t>Cartagena - Tenerife</t>
   </si>
   <si>
+    <t>Al Cartagena le expulsaron a uno en el 77, a los 10 minutos le metieron un gol. Dominó el partido el Cartagena hasta entonces</t>
+  </si>
+  <si>
     <t>Fuenlabrada - Almería</t>
   </si>
   <si>
+    <t>Q 2. El Almería tuvo oportunidades para ganar, tuvo suerte el Fuenlabrada</t>
+  </si>
+  <si>
     <t>Girona - Leganés</t>
   </si>
   <si>
+    <t>El Leganés no tuvo nada que hacer. El Girona hace cosas extrañas esta temporada</t>
+  </si>
+  <si>
     <t>Huesca - Real Valladolid</t>
   </si>
   <si>
+    <t>Hacía tres meses que no ganaba el Huesca en casa, parece que sale de un mínimo. El Valladolid tuvo oportunidades de empatar, bastante bien</t>
+  </si>
+  <si>
     <t>Las Palmas - Sporting</t>
   </si>
   <si>
+    <t>Q Sporting tiene que subir ya pero Las Palmas está bajando demasiado. X. El Sporting sigue bajando en picado, Las Palmas tiene muy buen equipo. Fue gol en propia del Sporting...</t>
+  </si>
+  <si>
     <t>Lugo - Ibiza</t>
   </si>
   <si>
+    <t>Q Lugo muy irregular. X. Muy poca cosa</t>
+  </si>
+  <si>
     <t>Málaga - Amorebieta</t>
   </si>
   <si>
+    <t>Q Málaga suele ganar en casa contra rivales fáciles. 1. El Amorebieta hay veces que da la sorpresa, muy difícil de pronosticar</t>
+  </si>
+  <si>
     <t>Real Oviedo - Alcorcón</t>
   </si>
   <si>
+    <t>Q Alcorcón sigue en mínimo absoluto como mucho empate. 1X. Sigue sin puntuar el Alcorcón, lo tiene muy difícil para quedarse en Segunda</t>
+  </si>
+  <si>
     <t>Ponferradina - Mirandés</t>
   </si>
   <si>
+    <t>Q. La ponfe tiene que seguir en racha. 1. Sigue en racha la Ponfe, dos goles de Yuri, el segundo en el 90. El Mirandés mereció algo más</t>
+  </si>
+  <si>
     <t>Real Sociedad B - Burgos</t>
   </si>
   <si>
+    <t>El Burgos aprovechó sus oportunidades, tuvo un 35% de posesión</t>
+  </si>
+  <si>
     <t>Real Zaragoza - Eibar</t>
   </si>
   <si>
+    <t>Bien el Zaragoza que gana a un Eibar que tuvo bastantes oportunidades</t>
+  </si>
+  <si>
     <t>Jornada 20 - Liga Santander</t>
   </si>
   <si>
@@ -2827,61 +3040,697 @@
     <t>Jornada 21 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Real Madrid</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid - Levante</t>
+  </si>
+  <si>
+    <t>Barcelona  - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Real Betis - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Celta - Osasuna</t>
+  </si>
+  <si>
+    <t>Mallorca - Real Sociedad</t>
+  </si>
+  <si>
+    <t>Getafe - Granada</t>
+  </si>
+  <si>
+    <t>Cádiz - Espanyol</t>
+  </si>
+  <si>
+    <t>Valencia - Sevilla</t>
+  </si>
+  <si>
+    <t>Elcher - Villarreal</t>
+  </si>
+  <si>
     <t>Jornada 21 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Girona - Burgos</t>
+  </si>
+  <si>
+    <t>Málaga - Leganés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X El Leganés solo una derrota en 7 partidos, muy bien. </t>
+  </si>
+  <si>
+    <t>Ibiza - Real Sporting</t>
+  </si>
+  <si>
+    <t>El Sporting gana pero sin hacer un gran partido, ya le tocaba. Esta derrota le costó el puesto a Carcedo, decisión errónea en mi opinión, está a 666666 puntos del descenso</t>
+  </si>
+  <si>
+    <t>Las Palmas - Eibar</t>
+  </si>
+  <si>
+    <t>1X Las Palmas se está desinflando, el Eibar muy bien sin embargo</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Tenerife</t>
+  </si>
+  <si>
+    <t>Ponferradina - Amorebieta</t>
+  </si>
+  <si>
+    <t>Cartagena - Mirandés</t>
+  </si>
+  <si>
+    <t>Huesca - Alcorcón</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Real Valladolid</t>
+  </si>
+  <si>
+    <t>Lugo - Almería</t>
+  </si>
+  <si>
     <t>Jornada 22 - Liga Santander</t>
   </si>
   <si>
+    <t>Deportivo Alavés - Barcelona</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid - Valencia</t>
+  </si>
+  <si>
+    <t>Granada - Osasuna</t>
+  </si>
+  <si>
+    <t>Espanyol - Real Betis</t>
+  </si>
+  <si>
+    <t>Levante - Cádiz</t>
+  </si>
+  <si>
+    <t>Real Madrid - Elche</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Getafe</t>
+  </si>
+  <si>
+    <t>Sevilla - Celta</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Athletic Club</t>
+  </si>
+  <si>
+    <t>Villarreal - Mallorca</t>
+  </si>
+  <si>
     <t>Jornada 22 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Eibar - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Ponferradina</t>
+  </si>
+  <si>
+    <t>Burgos - Amorebieta</t>
+  </si>
+  <si>
+    <t>Mirandés - Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Real Sporting - Lugo</t>
+  </si>
+  <si>
+    <t>Almería - Cartagena</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Leganés</t>
+  </si>
+  <si>
+    <t>Huesca - Girona</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Ibiza</t>
+  </si>
+  <si>
+    <t>Tenerife - Las Palmas</t>
+  </si>
+  <si>
+    <t>Alcorcón - Málaga</t>
+  </si>
+  <si>
     <t>Jornada 23 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Espanyol</t>
+  </si>
+  <si>
+    <t>Barcelona - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Real Betis - Villarreal</t>
+  </si>
+  <si>
+    <t>Celta - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Mallorca - Cádiz</t>
+  </si>
+  <si>
+    <t>Getafe - Levante</t>
+  </si>
+  <si>
+    <t>Osasuna - Sevilla</t>
+  </si>
+  <si>
+    <t>Real Madrid - Granada</t>
+  </si>
+  <si>
+    <t>Valencia - Real Sociedad</t>
+  </si>
+  <si>
+    <t>Elche - Deportivo Alavés</t>
+  </si>
+  <si>
     <t>Jornada 23 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Amorebieta - Tenerife</t>
+  </si>
+  <si>
+    <t>Cartagena - Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza - Alcorcón</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Burgos</t>
+  </si>
+  <si>
+    <t>Leganés - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Girona - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Lugo - Mirandés</t>
+  </si>
+  <si>
+    <t>Málaga - Real Sporting</t>
+  </si>
+  <si>
+    <t>Ponferradina - Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Las Palmas - Almería</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Eibar</t>
+  </si>
+  <si>
     <t>Jornada 24 - Liga Santander</t>
   </si>
   <si>
+    <t>Deportivo Alavés - Valencia</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid - Getafe</t>
+  </si>
+  <si>
+    <t>Mallorca - Athletic Club</t>
+  </si>
+  <si>
+    <t>Cádiz - Celta</t>
+  </si>
+  <si>
+    <t>Espanyol - Barcelona</t>
+  </si>
+  <si>
+    <t>Levante - Real Betis</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Granada</t>
+  </si>
+  <si>
+    <t>Sevilla - Elche</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Osasuna</t>
+  </si>
+  <si>
     <t>Jornada 24 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Alcorcón - Mirandés</t>
+  </si>
+  <si>
+    <t>Almería - Eibar</t>
+  </si>
+  <si>
+    <t>Burgos - Leganés</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Las Palmas</t>
+  </si>
+  <si>
+    <t>Girona - Lugo</t>
+  </si>
+  <si>
+    <t>Huesca - Ponferradina</t>
+  </si>
+  <si>
+    <t>Málaga - Ibiza</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Cartagena</t>
+  </si>
+  <si>
+    <t>Real Sporting - Amorebieta</t>
+  </si>
+  <si>
+    <t>Tenerife - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Real Valladolid</t>
+  </si>
+  <si>
     <t>Jornada 25 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Real Sociedad</t>
+  </si>
+  <si>
+    <t>Real Betis - Mallorca</t>
+  </si>
+  <si>
+    <t>Celta - Levante</t>
+  </si>
+  <si>
+    <t>Cádiz - Getafe</t>
+  </si>
+  <si>
+    <t>Granada - Villarreal</t>
+  </si>
+  <si>
+    <t>Espanyol - Sevilla</t>
+  </si>
+  <si>
+    <t>Osasuna - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Real Madrid - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Valencia - Barcelona</t>
+  </si>
+  <si>
+    <t>Elche - Rayo Vallecano</t>
+  </si>
+  <si>
     <t>Jornada 25 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Amorebieta - Girona</t>
+  </si>
+  <si>
+    <t>Cartagena - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Eibar - Huesca</t>
+  </si>
+  <si>
+    <t>Ibiza - Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Leganés - Alcorcón</t>
+  </si>
+  <si>
+    <t>Las Palmas - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Lugo - Burgos</t>
+  </si>
+  <si>
+    <t>Mirandés - Málaga</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Almería</t>
+  </si>
+  <si>
+    <t>Ponferradina - Tenerife</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Real Sporting</t>
+  </si>
+  <si>
     <t>Jornada 26 - Liga Santander</t>
   </si>
   <si>
+    <t>Atlético de Madrid - Celta</t>
+  </si>
+  <si>
+    <t>Barcelona - Athletic Club</t>
+  </si>
+  <si>
+    <t>Mallorca - Valencia</t>
+  </si>
+  <si>
+    <t>Getafe - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Granada - Cádiz</t>
+  </si>
+  <si>
+    <t>Levante - Elche</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Osasuna</t>
+  </si>
+  <si>
+    <t>Sevilla - Real Betis</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Real Madrid</t>
+  </si>
+  <si>
+    <t>Villarreal - Espanyol</t>
+  </si>
+  <si>
     <t>Jornada 26 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Almería - Ibiza</t>
+  </si>
+  <si>
+    <t>Amorebieta - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Burgos - Alcorcón</t>
+  </si>
+  <si>
+    <t>Cartagena - Las Palmas</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Real Valladolid</t>
+  </si>
+  <si>
+    <t>Girona - Ponferradina</t>
+  </si>
+  <si>
+    <t>Huesca - Mirandés</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Lugo</t>
+  </si>
+  <si>
+    <t>Real Sporting - Eibar</t>
+  </si>
+  <si>
+    <t>Tenerife - Leganés</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Málaga</t>
+  </si>
+  <si>
     <t>Jornada 27 - Liga Santander</t>
   </si>
   <si>
+    <t>Depotivo Alavés - Sevilla</t>
+  </si>
+  <si>
+    <t>Athletic Club - Levante</t>
+  </si>
+  <si>
+    <t>Real Betis - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Celta - Mallorca</t>
+  </si>
+  <si>
+    <t>Cádiz - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Espanyol - Getafe</t>
+  </si>
+  <si>
+    <t>Osasuna - Villarreal</t>
+  </si>
+  <si>
+    <t>Real Madrid - Real Sociedad</t>
+  </si>
+  <si>
+    <t>Valencia - Granada</t>
+  </si>
+  <si>
+    <t>Elche - Barcelona</t>
+  </si>
+  <si>
     <t>Jornada 27 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Alcorcón - Tenerife</t>
+  </si>
+  <si>
+    <t>Eibar - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Ibiza - Cartagena</t>
+  </si>
+  <si>
+    <t>Leganés - Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Las Palmas - Burgos</t>
+  </si>
+  <si>
+    <t>Lugo - Amorebieta</t>
+  </si>
+  <si>
+    <t>Málaga - Almería</t>
+  </si>
+  <si>
+    <t>Mirandés - Real Sporting</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Hueesca</t>
+  </si>
+  <si>
+    <t>Ponferradina - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Girona</t>
+  </si>
+  <si>
     <t>Jornada 28 - Liga Santander</t>
   </si>
   <si>
+    <t>Atlético de Madrid - Cádiz</t>
+  </si>
+  <si>
+    <t>Barcelona - Osasuna</t>
+  </si>
+  <si>
+    <t>Real Betis - Athletic Club</t>
+  </si>
+  <si>
+    <t>Mallorca - Real Madrid</t>
+  </si>
+  <si>
+    <t>Getafe - Valencia</t>
+  </si>
+  <si>
+    <t>Granada - Elche</t>
+  </si>
+  <si>
+    <t>Levante - Espanyol</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Sevilla</t>
+  </si>
+  <si>
+    <t>Villarreal - Celta</t>
+  </si>
+  <si>
     <t>Jornada 28 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Almería - Mirandés</t>
+  </si>
+  <si>
+    <t>Amorebieta - Leganés</t>
+  </si>
+  <si>
+    <t>Burgos - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Cartagena - Real Valladolid</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Alcorcón</t>
+  </si>
+  <si>
+    <t>Girona - Eibar</t>
+  </si>
+  <si>
+    <t>Huesca - Lugo</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Málaga</t>
+  </si>
+  <si>
+    <t>Real Sporting - Ponferradina</t>
+  </si>
+  <si>
+    <t>Tenerife - Ibiza</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Las Palmas</t>
+  </si>
+  <si>
     <t>Jornada 29 - Liga Santander</t>
   </si>
   <si>
+    <t>Deportivo Alavés - Granada</t>
+  </si>
+  <si>
+    <t>Athletic Club - Getafe</t>
+  </si>
+  <si>
+    <t>Celta - Real Vetis</t>
+  </si>
+  <si>
+    <t>Cádiz - Villarreal</t>
+  </si>
+  <si>
+    <t>Espanyol - Mallorca</t>
+  </si>
+  <si>
+    <t>Osasuna - Levante</t>
+  </si>
+  <si>
+    <t>Real Madrid - Barcelona</t>
+  </si>
+  <si>
+    <t>Sevilla - Real Sociedad</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano - Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Elche - Valencia</t>
+  </si>
+  <si>
     <t>Jornada 29 - Liga Smartbank</t>
   </si>
   <si>
+    <t>Alcorcón - Ponferradina</t>
+  </si>
+  <si>
+    <t>Almería - Fuenlabrada</t>
+  </si>
+  <si>
+    <t>Eibar - Burgos</t>
+  </si>
+  <si>
+    <t>Ibiza - Huesca</t>
+  </si>
+  <si>
+    <t>Leganés - Girona</t>
+  </si>
+  <si>
+    <t>Las Palmas - Lugo</t>
+  </si>
+  <si>
+    <t>Málaga - Cartagena</t>
+  </si>
+  <si>
+    <t>Mirandés - Tenerife</t>
+  </si>
+  <si>
+    <t>Real Oviedo - Real Sociedad B</t>
+  </si>
+  <si>
+    <t>Real Sporting - Real Zaragoza</t>
+  </si>
+  <si>
+    <t>Real Valladolid - Amorebieta</t>
+  </si>
+  <si>
     <t>Jornada 30 - Liga Santander</t>
   </si>
   <si>
+    <t>Athletic Club - Elche</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid - Deportivo Alavés</t>
+  </si>
+  <si>
+    <t>Barcelona - Sevilla</t>
+  </si>
+  <si>
+    <t>Real Betis - Osasuna</t>
+  </si>
+  <si>
+    <t>Celta - Real Madrid</t>
+  </si>
+  <si>
+    <t>Getafe - Mallorca</t>
+  </si>
+  <si>
+    <t>Granada - Rayo Vallecano</t>
+  </si>
+  <si>
+    <t>Levante - Villarreal</t>
+  </si>
+  <si>
+    <t>Real Sociedad - Espanyol</t>
+  </si>
+  <si>
+    <t>Valencia - Cádiz</t>
+  </si>
+  <si>
     <t>Jornada 30 - Liga Smartbank</t>
+  </si>
+  <si>
+    <t>Amorebieta - Málaga</t>
+  </si>
+  <si>
+    <t>Cartagena - Eibar</t>
+  </si>
+  <si>
+    <t>Fuenlabrada - Burgos</t>
+  </si>
+  <si>
+    <t>Girona - Real Oviedo</t>
+  </si>
+  <si>
+    <t>Huesca - Las Palmas</t>
+  </si>
+  <si>
+    <t>Leganés - Mirandés</t>
+  </si>
+  <si>
+    <t>Lugo - Alcorcón</t>
+  </si>
+  <si>
+    <t>Ponferradina - Ibiza</t>
+  </si>
+  <si>
+    <t>Real Sociedad B - Real Sporting</t>
+  </si>
+  <si>
+    <t>Tenerife - Real Valladolid</t>
+  </si>
+  <si>
+    <t>Real Zaragoza - Almería</t>
   </si>
   <si>
     <t>Jornada 31 - Liga Santander</t>
@@ -3587,7 +4436,7 @@
         <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s">
         <v>53</v>
@@ -3679,19 +4528,19 @@
     </row>
     <row r="5" spans="1:44">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>48</v>
@@ -3810,19 +4659,19 @@
     </row>
     <row r="6" spans="1:44">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>48</v>
@@ -3941,19 +4790,19 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s">
         <v>52</v>
@@ -4072,19 +4921,19 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>51</v>
@@ -4203,19 +5052,19 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -4334,19 +5183,19 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -4465,19 +5314,19 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>51</v>
@@ -4596,19 +5445,19 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
         <v>51</v>
@@ -4727,10 +5576,10 @@
     </row>
     <row r="13" spans="1:44">
       <c r="E13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G13" t="s">
         <v>51</v>
@@ -4849,13 +5698,13 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G14" t="s">
         <v>49</v>
@@ -4974,19 +5823,19 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
         <v>48</v>
@@ -5105,19 +5954,19 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
@@ -5236,19 +6085,19 @@
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" t="s">
         <v>49</v>
@@ -5367,19 +6216,19 @@
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
         <v>52</v>
@@ -5498,19 +6347,19 @@
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
@@ -5629,19 +6478,19 @@
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F20" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G20" t="s">
         <v>51</v>
@@ -5760,19 +6609,19 @@
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G21" t="s">
         <v>51</v>
@@ -5891,19 +6740,19 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -6022,27 +6871,27 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
         <v>4</v>
@@ -6162,33 +7011,33 @@
         <v>42</v>
       </c>
       <c r="AS24" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AT24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AU24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AV24" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:48">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" t="s">
         <v>48</v>
@@ -6319,10 +7168,10 @@
     </row>
     <row r="26" spans="1:48">
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G26" t="s">
         <v>51</v>
@@ -6453,13 +7302,13 @@
     </row>
     <row r="27" spans="1:48">
       <c r="A27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F27" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
         <v>52</v>
@@ -6590,19 +7439,19 @@
     </row>
     <row r="28" spans="1:48">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G28" t="s">
         <v>48</v>
@@ -6733,19 +7582,19 @@
     </row>
     <row r="29" spans="1:48">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G29" t="s">
         <v>48</v>
@@ -6876,19 +7725,19 @@
     </row>
     <row r="30" spans="1:48">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G30" t="s">
         <v>52</v>
@@ -7019,19 +7868,19 @@
     </row>
     <row r="31" spans="1:48">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E31" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F31" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G31" t="s">
         <v>50</v>
@@ -7162,19 +8011,19 @@
     </row>
     <row r="32" spans="1:48">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G32" t="s">
         <v>50</v>
@@ -7305,19 +8154,19 @@
     </row>
     <row r="33" spans="1:48">
       <c r="A33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B33" t="s">
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G33" t="s">
         <v>51</v>
@@ -7448,19 +8297,19 @@
     </row>
     <row r="34" spans="1:48">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B34" t="s">
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G34" t="s">
         <v>50</v>
@@ -7591,19 +8440,19 @@
     </row>
     <row r="35" spans="1:48">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G35" t="s">
         <v>52</v>
@@ -7645,7 +8494,7 @@
         <v>49</v>
       </c>
       <c r="T35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U35" t="s">
         <v>51</v>
@@ -7734,19 +8583,19 @@
     </row>
     <row r="36" spans="1:48">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
         <v>51</v>
@@ -7877,19 +8726,19 @@
     </row>
     <row r="37" spans="1:48">
       <c r="A37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E37" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
         <v>51</v>
@@ -8020,10 +8869,10 @@
     </row>
     <row r="38" spans="1:48">
       <c r="E38" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G38" t="s">
         <v>48</v>
@@ -8154,13 +9003,13 @@
     </row>
     <row r="39" spans="1:48">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G39" t="s">
         <v>51</v>
@@ -8291,19 +9140,19 @@
     </row>
     <row r="40" spans="1:48">
       <c r="A40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G40" t="s">
         <v>52</v>
@@ -8434,19 +9283,19 @@
     </row>
     <row r="41" spans="1:48">
       <c r="A41" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G41" t="s">
         <v>49</v>
@@ -8577,19 +9426,19 @@
     </row>
     <row r="42" spans="1:48">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F42" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G42" t="s">
         <v>51</v>
@@ -8720,19 +9569,19 @@
     </row>
     <row r="43" spans="1:48">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G43" t="s">
         <v>51</v>
@@ -8863,19 +9712,19 @@
     </row>
     <row r="44" spans="1:48">
       <c r="A44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -9006,19 +9855,19 @@
     </row>
     <row r="45" spans="1:48">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
         <v>52</v>
@@ -9149,19 +9998,19 @@
     </row>
     <row r="46" spans="1:48">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G46" t="s">
         <v>53</v>
@@ -9292,282 +10141,282 @@
     </row>
     <row r="47" spans="1:48">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:48">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F50" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="F51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C55" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F58" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B59" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C59" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F59" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C61" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B66" t="s">
         <v>44</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K70" t="s">
         <v>55</v>
@@ -9575,155 +10424,155 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C73" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B78" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C79" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B83" t="s">
         <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s">
         <v>54</v>
@@ -9731,7 +10580,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
         <v>54</v>
@@ -9739,1124 +10588,1124 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B90" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B91" t="s">
         <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
         <v>57</v>
       </c>
       <c r="C95" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B97" t="s">
         <v>57</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C98" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C99" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C103" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B106" t="s">
         <v>57</v>
       </c>
       <c r="C106" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B107" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C107" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B108" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C109" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C111" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B112" t="s">
         <v>57</v>
       </c>
       <c r="C112" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
         <v>57</v>
       </c>
       <c r="C116" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s">
         <v>57</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C118" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C119" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C120" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B121" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s">
         <v>44</v>
       </c>
       <c r="C122" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C123" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B124" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C124" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B125" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C125" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B128" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B130" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B131" t="s">
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B132" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B133" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C133" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B134" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B136" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C136" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B137" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C137" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B140" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
         <v>57</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B142" t="s">
         <v>44</v>
       </c>
       <c r="C142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B143" t="s">
         <v>57</v>
       </c>
       <c r="C143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B144" t="s">
         <v>44</v>
       </c>
       <c r="C144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B145" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C145" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B146" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B147" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B149" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B150" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s">
         <v>44</v>
       </c>
       <c r="C153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B154" t="s">
         <v>57</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B155" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B156" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B158" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B159" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C159" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B160" t="s">
         <v>44</v>
       </c>
       <c r="C160" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B161" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B162" t="s">
         <v>44</v>
       </c>
       <c r="C162" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B165" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B166" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C166" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B167" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B168" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C168" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B169" t="s">
         <v>57</v>
       </c>
       <c r="C169" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C170" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B171" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C171" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B172" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C172" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B173" t="s">
         <v>57</v>
       </c>
       <c r="C173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B174" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B175" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C175" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B178" t="s">
         <v>44</v>
       </c>
       <c r="C178" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B179" t="s">
         <v>44</v>
       </c>
       <c r="C179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B180" t="s">
         <v>44</v>
       </c>
       <c r="C180" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B181" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C181" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B182" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C182" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B183" t="s">
         <v>44</v>
       </c>
       <c r="C183" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B184" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C184" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B185" t="s">
         <v>57</v>
       </c>
       <c r="C185" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B186" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C186" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B187" t="s">
         <v>44</v>
       </c>
       <c r="C187" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B190" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B191" t="s">
         <v>57</v>
       </c>
       <c r="C191" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B192" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C192" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B193" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C193" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B194" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C194" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B195" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C195" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B196" t="s">
         <v>44</v>
       </c>
       <c r="C196" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B197" t="s">
         <v>44</v>
       </c>
       <c r="C197" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B198" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C198" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B199" t="s">
         <v>57</v>
       </c>
       <c r="C199" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C200" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B203" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C203" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B204" t="s">
         <v>44</v>
       </c>
       <c r="C204" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B205" t="s">
         <v>54</v>
@@ -10864,2386 +11713,3940 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="C206" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C207" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B208" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C208" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B209" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C209" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B210" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C210" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B211" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C211" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B212" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C212" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B215" t="s">
         <v>57</v>
       </c>
       <c r="C215" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B216" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C216" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B217" t="s">
         <v>44</v>
       </c>
       <c r="C217" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B218" t="s">
         <v>57</v>
       </c>
       <c r="C218" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B219" t="s">
         <v>57</v>
       </c>
       <c r="C219" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B220" t="s">
         <v>57</v>
       </c>
       <c r="C220" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B221" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C221" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B222" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C222" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B223" t="s">
         <v>44</v>
       </c>
       <c r="C223" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B224" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C224" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B225" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C225" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B228" t="s">
         <v>57</v>
       </c>
       <c r="C228" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B229" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C229" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B230" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C230" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B231" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C231" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B232" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C232" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B233" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C233" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B234" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B235" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C235" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B236" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C236" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B237" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C237" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B240" t="s">
         <v>44</v>
       </c>
       <c r="C240" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B241" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C241" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C242" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B243" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C243" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B244" t="s">
         <v>57</v>
       </c>
       <c r="C244" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B245" t="s">
         <v>44</v>
       </c>
       <c r="C245" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B246" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C246" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B247" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C247" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B248" t="s">
         <v>57</v>
       </c>
       <c r="C248" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B249" t="s">
         <v>57</v>
       </c>
       <c r="C249" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B250" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C250" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B253" t="s">
         <v>44</v>
       </c>
       <c r="C253" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B254" t="s">
         <v>57</v>
       </c>
       <c r="C254" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B255" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C255" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B256" t="s">
         <v>44</v>
       </c>
       <c r="C256" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B257" t="s">
         <v>57</v>
       </c>
       <c r="C257" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B258" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C258" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B259" t="s">
         <v>57</v>
       </c>
       <c r="C259" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B260" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C260" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B261" t="s">
         <v>57</v>
       </c>
       <c r="C261" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B262" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C262" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B265" t="s">
         <v>44</v>
       </c>
       <c r="C265" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B266" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C266" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B267" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C267" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B268" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C268" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B269" t="s">
         <v>57</v>
       </c>
       <c r="C269" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B270" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C270" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B271" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C271" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B272" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C272" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B273" t="s">
         <v>57</v>
       </c>
       <c r="C273" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B274" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C274" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B275" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C275" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B278" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C278" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B279" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C279" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B280" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C280" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B281" t="s">
         <v>57</v>
       </c>
       <c r="C281" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B282" t="s">
         <v>57</v>
       </c>
       <c r="C282" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B283" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C283" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B284" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C284" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B285" t="s">
         <v>57</v>
       </c>
       <c r="C285" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B286" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C286" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B287" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C287" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B290" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C290" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B291" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C291" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B292" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C292" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B293" t="s">
         <v>44</v>
       </c>
       <c r="C293" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B294" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C294" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B295" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C295" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B296" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C296" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B297" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C297" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B298" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C298" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B299" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C299" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B300" t="s">
         <v>57</v>
       </c>
       <c r="C300" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B303" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C303" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B304" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C304" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B305" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C305" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B306" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C306" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B307" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C307" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B308" t="s">
         <v>44</v>
       </c>
       <c r="C308" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B309" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C309" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B310" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C310" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B311" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C311" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B312" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C312" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B315" t="s">
         <v>44</v>
       </c>
       <c r="C315" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B316" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C316" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B317" t="s">
         <v>57</v>
       </c>
       <c r="C317" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B318" t="s">
         <v>57</v>
       </c>
       <c r="C318" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B319" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C319" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B320" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C320" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B321" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C321" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B322" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C322" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B323" t="s">
         <v>57</v>
       </c>
       <c r="C323" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B324" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C324" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B325" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C325" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B328" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C328" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>744</v>
+        <v>746</v>
+      </c>
+      <c r="B329" t="s">
+        <v>57</v>
+      </c>
+      <c r="C329" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>745</v>
+        <v>748</v>
+      </c>
+      <c r="B330" t="s">
+        <v>130</v>
+      </c>
+      <c r="C330" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>746</v>
+        <v>750</v>
+      </c>
+      <c r="B331" t="s">
+        <v>44</v>
+      </c>
+      <c r="C331" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>747</v>
+        <v>752</v>
+      </c>
+      <c r="B332" t="s">
+        <v>44</v>
+      </c>
+      <c r="C332" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>748</v>
+        <v>754</v>
+      </c>
+      <c r="B333" t="s">
+        <v>272</v>
+      </c>
+      <c r="C333" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>749</v>
+        <v>756</v>
+      </c>
+      <c r="B334" t="s">
+        <v>67</v>
+      </c>
+      <c r="C334" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>750</v>
+        <v>758</v>
+      </c>
+      <c r="B335" t="s">
+        <v>587</v>
+      </c>
+      <c r="C335" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>751</v>
+        <v>760</v>
+      </c>
+      <c r="B336" t="s">
+        <v>72</v>
+      </c>
+      <c r="C336" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>752</v>
+        <v>762</v>
+      </c>
+      <c r="C337" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="B340" t="s">
         <v>57</v>
       </c>
       <c r="C340" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B341" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C341" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B342" t="s">
         <v>57</v>
       </c>
       <c r="C342" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B343" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C343" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B344" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C344" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B345" t="s">
         <v>44</v>
       </c>
       <c r="C345" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B346" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C346" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B347" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C347" t="s">
-        <v>769</v>
+        <v>779</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>770</v>
+        <v>780</v>
       </c>
       <c r="B348" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C348" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="B349" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C349" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="B350" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C350" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>775</v>
+        <v>785</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>776</v>
+        <v>786</v>
+      </c>
+      <c r="B353" t="s">
+        <v>130</v>
+      </c>
+      <c r="C353" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>777</v>
+        <v>788</v>
+      </c>
+      <c r="B354" t="s">
+        <v>77</v>
+      </c>
+      <c r="C354" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>778</v>
+        <v>790</v>
+      </c>
+      <c r="B355" t="s">
+        <v>57</v>
+      </c>
+      <c r="C355" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>779</v>
+        <v>792</v>
+      </c>
+      <c r="B356" t="s">
+        <v>72</v>
+      </c>
+      <c r="C356" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>780</v>
+        <v>794</v>
+      </c>
+      <c r="B357" t="s">
+        <v>148</v>
+      </c>
+      <c r="C357" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>781</v>
+        <v>796</v>
+      </c>
+      <c r="B358" t="s">
+        <v>396</v>
+      </c>
+      <c r="C358" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>782</v>
+        <v>798</v>
+      </c>
+      <c r="B359" t="s">
+        <v>44</v>
+      </c>
+      <c r="C359" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>783</v>
+        <v>800</v>
+      </c>
+      <c r="B360" t="s">
+        <v>67</v>
+      </c>
+      <c r="C360" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>784</v>
+        <v>802</v>
+      </c>
+      <c r="B361" t="s">
+        <v>210</v>
+      </c>
+      <c r="C361" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>785</v>
+        <v>804</v>
+      </c>
+      <c r="B362" t="s">
+        <v>57</v>
+      </c>
+      <c r="C362" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="B365" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C365" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="B366" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C366" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="B367" t="s">
         <v>57</v>
       </c>
       <c r="C367" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="B368" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C368" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="B369" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C369" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="B370" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C370" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="B371" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C371" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="B372" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C372" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="B373" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C373" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="B374" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C374" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="B375" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C375" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>810</v>
+        <v>830</v>
+      </c>
+      <c r="B378" t="s">
+        <v>77</v>
+      </c>
+      <c r="C378" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>811</v>
+        <v>832</v>
+      </c>
+      <c r="B379" t="s">
+        <v>162</v>
+      </c>
+      <c r="C379" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>812</v>
+        <v>834</v>
+      </c>
+      <c r="B380" t="s">
+        <v>77</v>
+      </c>
+      <c r="C380" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>813</v>
+        <v>836</v>
+      </c>
+      <c r="B381" t="s">
+        <v>72</v>
+      </c>
+      <c r="C381" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" t="s">
-        <v>814</v>
+        <v>838</v>
+      </c>
+      <c r="B382" t="s">
+        <v>210</v>
+      </c>
+      <c r="C382" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" t="s">
-        <v>815</v>
+        <v>840</v>
+      </c>
+      <c r="B383" t="s">
+        <v>72</v>
+      </c>
+      <c r="C383" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" t="s">
-        <v>816</v>
+        <v>842</v>
+      </c>
+      <c r="B384" t="s">
+        <v>223</v>
+      </c>
+      <c r="C384" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>817</v>
+        <v>844</v>
+      </c>
+      <c r="B385" t="s">
+        <v>44</v>
+      </c>
+      <c r="C385" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>818</v>
+        <v>846</v>
+      </c>
+      <c r="B386" t="s">
+        <v>44</v>
+      </c>
+      <c r="C386" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>819</v>
+        <v>848</v>
+      </c>
+      <c r="B387" t="s">
+        <v>396</v>
+      </c>
+      <c r="C387" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>820</v>
+        <v>850</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>821</v>
+        <v>851</v>
       </c>
       <c r="B390" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C390" t="s">
-        <v>822</v>
+        <v>852</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>823</v>
+        <v>853</v>
       </c>
       <c r="B391" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C391" t="s">
-        <v>824</v>
+        <v>854</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>825</v>
+        <v>855</v>
       </c>
       <c r="B392" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C392" t="s">
-        <v>826</v>
+        <v>856</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>827</v>
+        <v>857</v>
       </c>
       <c r="B393" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C393" t="s">
-        <v>828</v>
+        <v>858</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>829</v>
+        <v>859</v>
       </c>
       <c r="B394" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C394" t="s">
-        <v>830</v>
+        <v>860</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>831</v>
+        <v>861</v>
       </c>
       <c r="B395" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C395" t="s">
-        <v>832</v>
+        <v>862</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
       <c r="B396" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C396" t="s">
-        <v>834</v>
+        <v>864</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>835</v>
+        <v>865</v>
       </c>
       <c r="B397" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C397" t="s">
-        <v>836</v>
+        <v>866</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>837</v>
+        <v>867</v>
       </c>
       <c r="B398" t="s">
         <v>44</v>
       </c>
       <c r="C398" t="s">
-        <v>838</v>
+        <v>868</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>839</v>
+        <v>869</v>
       </c>
       <c r="B399" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C399" t="s">
-        <v>840</v>
+        <v>870</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>841</v>
+        <v>871</v>
       </c>
       <c r="B400" t="s">
         <v>44</v>
       </c>
       <c r="C400" t="s">
-        <v>842</v>
+        <v>872</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" t="s">
-        <v>843</v>
+        <v>873</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" t="s">
-        <v>844</v>
+        <v>874</v>
+      </c>
+      <c r="B403" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>845</v>
+        <v>875</v>
+      </c>
+      <c r="B404" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>846</v>
+        <v>876</v>
+      </c>
+      <c r="B405" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>847</v>
+        <v>877</v>
+      </c>
+      <c r="B406" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>848</v>
+        <v>878</v>
+      </c>
+      <c r="B407" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>849</v>
+        <v>879</v>
+      </c>
+      <c r="B408" t="s">
+        <v>880</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>850</v>
+        <v>881</v>
+      </c>
+      <c r="B409" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>851</v>
+        <v>882</v>
+      </c>
+      <c r="B410" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>852</v>
+        <v>883</v>
+      </c>
+      <c r="B411" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>853</v>
+        <v>884</v>
+      </c>
+      <c r="B412" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>854</v>
+        <v>885</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>855</v>
+        <v>886</v>
       </c>
       <c r="B415" t="s">
         <v>57</v>
       </c>
       <c r="C415" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1">
+        <v>888</v>
+      </c>
+      <c r="B416" t="s">
+        <v>105</v>
+      </c>
+      <c r="C416" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1">
+        <v>890</v>
+      </c>
+      <c r="B417" t="s">
+        <v>210</v>
+      </c>
+      <c r="C417" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1">
+        <v>892</v>
+      </c>
+      <c r="B418" t="s">
+        <v>396</v>
+      </c>
+      <c r="C418" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1">
+        <v>894</v>
+      </c>
+      <c r="B419" t="s">
+        <v>44</v>
+      </c>
+      <c r="C419" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1">
+        <v>896</v>
+      </c>
+      <c r="B420" t="s">
+        <v>130</v>
+      </c>
+      <c r="C420" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1">
+        <v>898</v>
+      </c>
+      <c r="B421" t="s">
+        <v>72</v>
+      </c>
+      <c r="C421" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1">
+        <v>900</v>
+      </c>
+      <c r="B422" t="s">
+        <v>44</v>
+      </c>
+      <c r="C422" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1">
+        <v>902</v>
+      </c>
+      <c r="B423" t="s">
+        <v>402</v>
+      </c>
+      <c r="C423" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1">
+        <v>904</v>
+      </c>
+      <c r="B424" t="s">
+        <v>77</v>
+      </c>
+      <c r="C424" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1">
+        <v>906</v>
+      </c>
+      <c r="B425" t="s">
+        <v>223</v>
+      </c>
+      <c r="C425" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1">
+        <v>909</v>
+      </c>
+      <c r="B428" t="s">
+        <v>396</v>
+      </c>
+      <c r="C428" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1">
+        <v>911</v>
+      </c>
+      <c r="B429" t="s">
+        <v>105</v>
+      </c>
+      <c r="C429" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1">
+        <v>913</v>
+      </c>
+      <c r="B430" t="s">
+        <v>148</v>
+      </c>
+      <c r="C430" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1">
+        <v>915</v>
+      </c>
+      <c r="B431" t="s">
+        <v>370</v>
+      </c>
+      <c r="C431" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1">
+        <v>917</v>
+      </c>
+      <c r="B432" t="s">
+        <v>918</v>
+      </c>
+      <c r="C432" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1">
+        <v>920</v>
+      </c>
+      <c r="C433" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1">
+        <v>921</v>
+      </c>
+      <c r="C434" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1">
+        <v>923</v>
+      </c>
+      <c r="C435" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1">
+        <v>925</v>
+      </c>
+      <c r="C436" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1">
+        <v>926</v>
+      </c>
+      <c r="C437" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1">
+        <v>928</v>
+      </c>
+      <c r="B440" t="s">
+        <v>57</v>
+      </c>
+      <c r="C440" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1">
+        <v>930</v>
+      </c>
+      <c r="B441" t="s">
+        <v>57</v>
+      </c>
+      <c r="C441" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1">
+        <v>932</v>
+      </c>
+      <c r="B442" t="s">
+        <v>87</v>
+      </c>
+      <c r="C442" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1">
+        <v>934</v>
+      </c>
+      <c r="B443" t="s">
+        <v>72</v>
+      </c>
+      <c r="C443" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1">
+        <v>936</v>
+      </c>
+      <c r="B444" t="s">
+        <v>57</v>
+      </c>
+      <c r="C444" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
       <c r="A445" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1">
+        <v>938</v>
+      </c>
+      <c r="B445" t="s">
+        <v>105</v>
+      </c>
+      <c r="C445" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
       <c r="A446" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1">
+        <v>940</v>
+      </c>
+      <c r="B446" t="s">
+        <v>402</v>
+      </c>
+      <c r="C446" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1">
+        <v>942</v>
+      </c>
+      <c r="B447" t="s">
+        <v>57</v>
+      </c>
+      <c r="C447" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1">
+        <v>944</v>
+      </c>
+      <c r="B448" t="s">
+        <v>162</v>
+      </c>
+      <c r="C448" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1">
+        <v>946</v>
+      </c>
+      <c r="B449" t="s">
+        <v>105</v>
+      </c>
+      <c r="C449" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1">
+        <v>948</v>
+      </c>
+      <c r="B450" t="s">
+        <v>82</v>
+      </c>
+      <c r="C450" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
       <c r="A458" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1">
+        <v>962</v>
+      </c>
+      <c r="B465" t="s">
+        <v>57</v>
+      </c>
+      <c r="C465" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1">
+        <v>964</v>
+      </c>
+      <c r="B466" t="s">
+        <v>57</v>
+      </c>
+      <c r="C466" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1">
+        <v>966</v>
+      </c>
+      <c r="B467" t="s">
+        <v>87</v>
+      </c>
+      <c r="C467" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1">
+        <v>968</v>
+      </c>
+      <c r="B468" t="s">
+        <v>370</v>
+      </c>
+      <c r="C468" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1">
+        <v>970</v>
+      </c>
+      <c r="B469" t="s">
+        <v>44</v>
+      </c>
+      <c r="C469" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1">
+        <v>972</v>
+      </c>
+      <c r="B470" t="s">
+        <v>72</v>
+      </c>
+      <c r="C470" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1">
+        <v>974</v>
+      </c>
+      <c r="B471" t="s">
+        <v>77</v>
+      </c>
+      <c r="C471" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1">
+        <v>976</v>
+      </c>
+      <c r="B472" t="s">
+        <v>396</v>
+      </c>
+      <c r="C472" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1">
+        <v>978</v>
+      </c>
+      <c r="B473" t="s">
+        <v>210</v>
+      </c>
+      <c r="C473" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1">
+        <v>980</v>
+      </c>
+      <c r="B474" t="s">
+        <v>162</v>
+      </c>
+      <c r="C474" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1">
+        <v>982</v>
+      </c>
+      <c r="B475" t="s">
+        <v>44</v>
+      </c>
+      <c r="C475" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
       <c r="A486" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" t="s">
+        <v>996</v>
+      </c>
+      <c r="B490" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" t="s">
+        <v>997</v>
+      </c>
+      <c r="B491" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" t="s">
+        <v>998</v>
+      </c>
+      <c r="B492" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" t="s">
+        <v>999</v>
+      </c>
+      <c r="B493" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B494" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B495" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B496" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B497" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B498" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B499" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B500" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B515" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B516" t="s">
+        <v>223</v>
+      </c>
+      <c r="C516" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B517" t="s">
+        <v>223</v>
+      </c>
+      <c r="C517" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B518" t="s">
+        <v>162</v>
+      </c>
+      <c r="C518" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C520" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C521" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="487" spans="1:1">
-      <c r="A487" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1">
-      <c r="A489" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1">
-      <c r="A490" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1">
-      <c r="A491" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1">
-      <c r="A492" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1">
-      <c r="A493" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1">
-      <c r="A494" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1">
-      <c r="A495" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1">
-      <c r="A496" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1">
-      <c r="A497" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1">
-      <c r="A498" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1">
-      <c r="A499" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1">
-      <c r="A500" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1">
-      <c r="A502" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="514" spans="1:1">
-      <c r="A514" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="527" spans="1:1">
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C525" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
       <c r="A527" t="s">
-        <v>938</v>
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1">
+      <c r="A534" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1">
+      <c r="A535" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" t="s">
-        <v>939</v>
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1">
+      <c r="A542" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1">
+      <c r="A543" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1">
+      <c r="A546" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1">
+      <c r="A548" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1">
+      <c r="A549" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" t="s">
-        <v>940</v>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1">
+      <c r="A553" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1">
+      <c r="A554" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1">
+      <c r="A556" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1">
+      <c r="A558" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" t="s">
-        <v>941</v>
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" t="s">
-        <v>942</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1">
+      <c r="A578" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1">
+      <c r="A586" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" t="s">
-        <v>943</v>
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1">
+      <c r="A592" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1">
+      <c r="A593" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1">
+      <c r="A594" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1">
+      <c r="A595" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" t="s">
-        <v>944</v>
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1">
+      <c r="A603" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1">
+      <c r="A604" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1">
+      <c r="A605" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1">
+      <c r="A606" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1">
+      <c r="A607" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1">
+      <c r="A609" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" t="s">
-        <v>945</v>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" t="s">
-        <v>946</v>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1">
+      <c r="A628" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1">
+      <c r="A636" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" t="s">
-        <v>947</v>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1">
+      <c r="A644" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1">
+      <c r="A646" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1">
+      <c r="A650" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" t="s">
-        <v>948</v>
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1">
+      <c r="A653" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1">
+      <c r="A655" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1">
+      <c r="A658" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1">
+      <c r="A661" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" t="s">
-        <v>949</v>
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1">
+      <c r="A667" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1">
+      <c r="A668" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1">
+      <c r="A669" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1">
+      <c r="A675" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" t="s">
-        <v>950</v>
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1">
+      <c r="A679" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1">
+      <c r="A682" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1">
+      <c r="A685" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" t="s">
-        <v>951</v>
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1">
+      <c r="A690" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1">
+      <c r="A693" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1">
+      <c r="A694" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1">
+      <c r="A695" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1">
+      <c r="A697" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1">
+      <c r="A698" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1">
+      <c r="A699" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1">
+      <c r="A700" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" t="s">
-        <v>952</v>
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1">
+      <c r="A703" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1">
+      <c r="A707" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" t="s">
-        <v>953</v>
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1">
+      <c r="A717" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1">
+      <c r="A720" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1">
+      <c r="A721" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1">
+      <c r="A722" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1">
+      <c r="A725" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" t="s">
-        <v>954</v>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1">
+      <c r="A729" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1">
+      <c r="A737" t="s">
+        <v>1226</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" t="s">
-        <v>955</v>
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1">
+      <c r="A740" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1">
+      <c r="A742" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1">
+      <c r="A743" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1">
+      <c r="A745" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1">
+      <c r="A747" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" t="s">
-        <v>956</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" t="s">
-        <v>957</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" t="s">
-        <v>958</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" t="s">
-        <v>959</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" t="s">
-        <v>960</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" t="s">
-        <v>961</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" t="s">
-        <v>962</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" t="s">
-        <v>963</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" t="s">
-        <v>964</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" t="s">
-        <v>965</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" t="s">
-        <v>966</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" t="s">
-        <v>967</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" t="s">
-        <v>968</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" t="s">
-        <v>969</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" t="s">
-        <v>970</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" t="s">
-        <v>971</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" t="s">
-        <v>972</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" t="s">
-        <v>973</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" t="s">
-        <v>974</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" t="s">
-        <v>975</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="1002" spans="1:1">
       <c r="A1002" t="s">
-        <v>976</v>
+        <v>1259</v>
       </c>
     </row>
   </sheetData>
